--- a/SMILES Code Arzneistoffe und Metaboliten.xlsx
+++ b/SMILES Code Arzneistoffe und Metaboliten.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be15ad36569a2070/Dokumente/Uni/Bachelorarbeit/BA/Input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="816" documentId="8_{921A36C7-70B0-4253-B6F1-1E6E54CDF57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4265A337-F2C2-49F1-9D17-D15D350DBA85}"/>
+  <xr:revisionPtr revIDLastSave="889" documentId="8_{921A36C7-70B0-4253-B6F1-1E6E54CDF57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B423A809-211F-4B21-8F6D-07F0A7064FEF}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8880" xr2:uid="{8D61F994-5254-40BC-B3BF-F04E1B5E890A}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{8D61F994-5254-40BC-B3BF-F04E1B5E890A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1824" uniqueCount="1142">
   <si>
     <t>Verbindung Deutsch</t>
   </si>
@@ -735,9 +735,6 @@
   </si>
   <si>
     <t>CAS-Nr.</t>
-  </si>
-  <si>
-    <t>SMILES-Code</t>
   </si>
   <si>
     <t>Dicyandiamide</t>
@@ -2967,358 +2964,526 @@
     <t>O=C(O)C1=CN2C=3C(=CC(F)=CC3CCC2C)C1=O</t>
   </si>
   <si>
+    <t>O=C1OC(CC)C(O)(C)C(O)C(C(=O)C(C)CC(O)(C)C(OC2OC(C)CC(N(C)C)C2O)C(C)C(OC3OC(C)C(O)C(OC)(C)C3)C1C)C</t>
+  </si>
+  <si>
+    <t>O=S(=O)(N)C=1C=C2C(=CC1Cl)NCNS2(=O)=O</t>
+  </si>
+  <si>
+    <t>O=C(O)C1N2C(=O)C(NC(=O)C=3C(=NOC3C)C=4C(Cl)=CC=CC4Cl)C2SC1(C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C1N2C(=O)C(NC(=O)C=3C(=NOC3C)C=4C=CC=CC4Cl)C2SC1(C)C</t>
+  </si>
+  <si>
+    <t>O=C(OCC1=NC=C(N1C)[N+](=O)[O-])N</t>
+  </si>
+  <si>
+    <t>O=C(O)C1N2C(=O)C(NC(=O)C(NC(=O)N3C(=O)C(=O)N(CC)CC3)C=4C=CC=CC4)C2SC1(C)C</t>
+  </si>
+  <si>
+    <t>[Na+].O=C([N-]S(=O)(=O)C=1C=NC=CC1NC2=CC=CC(=C2)C)NC(C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C1N2C(=O)C(NC(=O)COC=3C=CC=CC3)C2SC1(C)C</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C1=CC=C(O)C=C1</t>
+  </si>
+  <si>
+    <t>O=C(O)C1N2C(=O)C(NC(=O)C=3C(=NOC3C)C=4C=CC=CC4)C2SC1(C)C</t>
+  </si>
+  <si>
+    <t>N#CC1=CC=C(C=C1C(F)(F)F)NC(=O)C(O)(C)CS(=O)(=O)C2=CC=C(F)C=C2</t>
+  </si>
+  <si>
+    <t>O=C(O)C1N2C(=O)C(NC(=O)C3=C(OCC)C=CC=4C=CC=CC43)C2SC1(C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C1N2C(=O)C(NC(=O)C(NC(=O)N3C(=O)N(CC3)S(=O)(=O)C)C=4C=CC=CC4)C2SC1(C)C</t>
+  </si>
+  <si>
+    <t>O=[N+]([O-])C1=CN=C(N1C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C1N2C(=O)C(NC(=O)C=3C(OC)=CC=CC3OC)C2SC1(C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C1N2C(=O)C(NC(=O)C=3C(=NOC3C)C=4C(F)=CC=CC4Cl)C2SC1(C)C</t>
+  </si>
+  <si>
+    <t>O(C1=CC=CC=2C=CC=CC12)C(C=3SC=CC3)CCNC</t>
+  </si>
+  <si>
+    <t>O=C1NC(=O)C(C(=O)N1)(C=2C=CC=CC2)CC</t>
+  </si>
+  <si>
+    <t>OCCOCCN1CCN(C2=NC=3C=CC=CC3SC=4C=CC=CC42)CC1</t>
+  </si>
+  <si>
+    <t>O=C1NC(=NC=2C(=NN(C12)C)CCC)C=3C=C(C=CC3OCC)S(=O)(=O)N4CCN(C)CC4</t>
+  </si>
+  <si>
+    <t>O=C(O)C1=CN(C2=CC(=C(F)C=C2C1=O)N3CCNCC3)C4CC4</t>
+  </si>
+  <si>
+    <t>O=CCC1CC(C(=O)C=CC(=CC(COC2OC(C)C(O)C(OC)C2OC)C(OC(=O)CC(O)C(C)C1OC3OC(C)C(OC4OC(C)C(O)C(O)(C)C4)C(N(C)C)C3O)CC)C)C</t>
+  </si>
+  <si>
+    <t>N=1C=C(C(=NC1N)N)CC2=CC(OC)=C(OC)C(OC)=C2</t>
+  </si>
+  <si>
+    <t>O=CCC1CC(C)C(OC2OC(C)C(N(C)C)CC2)C=CC=CCC(OC(=O)CC(O)C(OC)C1OC3OC(C)C(OC4OC(C)C(O)C(O)(C)C4)C(N(C)C)C3O)C</t>
+  </si>
+  <si>
+    <t>O=C1OC(CC)C(O)(C)C(O)C(C(=NOCOCCOC)C(C)CC(O)(C)C(OC2OC(C)CC(N(C)C)C2O)C(C)C(OC3OC(C)C(O)C(OC)(C)C3)C1C)C</t>
+  </si>
+  <si>
+    <t>OCC1OC(N2C=NC=3C(=NC=NC32)N)C(O)C1O</t>
+  </si>
+  <si>
+    <t>O=P1(OCCCN1CCCl)NCCCl</t>
+  </si>
+  <si>
+    <t>O=C1OC2CC(OC3(OC(C(C)CC)C(C)CC3)C2)CC=C(C)C(OC4OC(C)C(OC5OC(C)C(O)C(OC)C5)C(OC)C4)C(C=CC=C6COC7C(O)C(=CC1C67O)C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C1=CC=C(C=C1)C2=CC=CC=C2C=3N=NNN3</t>
+  </si>
+  <si>
+    <t>O=C(N1CCN(C2=CC=C(OCC3OC(OC3)(C4=CC=C(Cl)C=C4Cl)CN5C=NC=C5)C=C2)CC1)C</t>
+  </si>
+  <si>
+    <t>O=C(O)CC1=CC=C(OCC(O)CNC(C)C)C=C1</t>
+  </si>
+  <si>
+    <t>O=C(O)C1NC(=O)C2NC(=O)C(NC(=O)C3NC(=O)C(NC(=O)C(NC(=O)C(NC)CC(C)C)C(O)C4=CC=C(OC5=CC3=CC(OC6=CC=C(C=C6Cl)C2O)=C5OC7OC(CO)C(O)C(O)C7OC8OC(C)C(O)C(N)(C)C8)C(Cl)=C4)CC(=O)N)C=9C=CC(O)=C(C9)C%10=C(O)C=C(O)C=C%101</t>
+  </si>
+  <si>
+    <t>O=C(NCC1N(CC)CCC1)C=2C=C(C(N)=CC2OC)S(=O)(=O)CC</t>
+  </si>
+  <si>
+    <t>O=C(NCCN1CCOCC1)C2=CC=C(Cl)C=C2</t>
+  </si>
+  <si>
+    <t>O=C(N)C=1C(=O)C(N(C)C)C2CC3C(C(=O)C2(O)C1O)=C(O)C=4C(O)=CC=CC4C3(O)C</t>
+  </si>
+  <si>
+    <t>O=C1NC=2C(=NC=CC2C)N(C3=NC=CC=C13)C4CC4</t>
+  </si>
+  <si>
+    <t>O=C(N)C=1C(=O)C(N(C)C)C2C(O)C3C(C(=O)C2(O)C1O)=C(O)C=4C(O)=CC=CC4C3(O)C</t>
+  </si>
+  <si>
+    <t>O=C1C=C2CCC3C(CCC4(C)C(C(=O)C)CCC34)C2(C)CC1</t>
+  </si>
+  <si>
+    <t>O=C(O)C1N(C(=O)C(NC(C(=O)OCC)CCC=2C=CC=CC2)C)C3CCCC3C1</t>
+  </si>
+  <si>
+    <t>O=C(N)C=1C(=O)C(N(C)C)C2C(O)C3C(C(=O)C2(O)C1O)=C(O)C=4C(O)=CC=CC4C3C</t>
+  </si>
+  <si>
+    <t>O=C1NC(=NC2=C1N=CN2CCC(CO)CO)N</t>
+  </si>
+  <si>
+    <t>O=C1C=C2CCC3C(CCC4(C)C(O)CCC34)C2(C)CC1</t>
+  </si>
+  <si>
+    <t>O=C(O)C(N)CCCCNCNC(=O)C=1C(=O)C(N(C)C)C2CC3C(C(=O)C2(O)C1O)=C(O)C=4C(O)=CC=CC4C3(O)C</t>
+  </si>
+  <si>
+    <t>O=C1NC(=O)C(C(=O)N1)(CC)C(C)CCC</t>
+  </si>
+  <si>
+    <t>O=C(O)C1=CN2C3=C(OCC2C)C(=C(F)C=C3C1=O)N4CCN(C)CC4</t>
+  </si>
+  <si>
+    <t>O=C1CCC2(C)C(C1)CCC3C4CCC(O)C4(C)CCC32</t>
+  </si>
+  <si>
+    <t>O=C(N)N1C=2C=CC=CC2CCC=3C=CC=CC31</t>
+  </si>
+  <si>
+    <t>O=CNC=1C(=O)N(C=2C=CC=CC2)N(C1C)C</t>
+  </si>
+  <si>
+    <t>ClC=1N=C(N(C1CO)CC2=CC=C(C=C2)C3=CC=CC=C3C=4N=NNN4)CCCC</t>
+  </si>
+  <si>
+    <t>O=C(NC=1C(=O)N(C=2C=CC=CC2)N(C1C)C)C</t>
+  </si>
+  <si>
+    <t>OC1=CC=C(C=C1)C(CN(C)C)C2(O)CCCCC2</t>
+  </si>
+  <si>
+    <t>O=C(O)C(C=1C=CC=C(OC=2C=CC=CC2)C1)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C(C=1C=CC=CC1)C2NCCCC2</t>
+  </si>
+  <si>
+    <t>O(C1=CC=C(C=C1)C(C=2C=CC=CC2)=C(C=3C=CC=CC3)CC)CCN(C)C</t>
+  </si>
+  <si>
+    <t>ClC=1C=CC2=NSN=C2C1NC3=NCCN3</t>
+  </si>
+  <si>
+    <t>N#CC(C1=CC=C(OC)C(OC)=C1)(CCCN(C)CCC2=CC=C(OC)C(OC)=C2)C(C)C</t>
+  </si>
+  <si>
+    <t>O=C1CCC2C3CCC4CC(O)CCC4(C)C3CCC12C</t>
+  </si>
+  <si>
+    <t>O=C(O)CC1(CN)CCCCC1</t>
+  </si>
+  <si>
+    <t>[N-]=[N+]=NC1CC(OC1CO)N2C=C(C(=O)NC2=O)C</t>
+  </si>
+  <si>
+    <t>N#CC1=CC=C(C(OC)=C1)C2C=3C(=NC=C(C3NC(=C2C(=O)N)C)C)OCC</t>
+  </si>
+  <si>
+    <t>N=C(N=C(N)N)N(C)C</t>
+  </si>
+  <si>
+    <t>O=C1CCC2C3CC=C4CC(O)CCC4(C)C3CCC12C</t>
+  </si>
+  <si>
+    <t>O=S(=O)(NC1=NC=CC=N1)C2=CC=C(N)C=C2</t>
+  </si>
+  <si>
+    <t>O=C1C(N)=C(N(N1C=2C=CC=CC2)C)C</t>
+  </si>
+  <si>
+    <t>[H]C12CCC3(C)C(O)CCC3([H])C2([H])CCC4=CC(=O)CCC41C</t>
+  </si>
+  <si>
+    <t>O=S(=O)(NC1=CC=C(C=C1)C(O)CNC(C)C)C</t>
+  </si>
+  <si>
+    <t>O=C(N)CC1=CC=C(OCC(O)CNC(C)C)C=C1</t>
+  </si>
+  <si>
+    <t>O=C(OC1CCC2C3CCC4=CC(=O)CCC4(C)C3CCC12C)CCC5CCCC5</t>
+  </si>
+  <si>
+    <t>OC1(CCCCC1)C(C2=CC=C(OC)C=C2)CN(C)C</t>
+  </si>
+  <si>
+    <t>O=C(N)N1C=2C=CC=CC2C(O)C(O)C=3C=CC=CC31</t>
+  </si>
+  <si>
+    <t>O=C(N)C(N1C(=O)CCC1)CC</t>
+  </si>
+  <si>
+    <t>O=C(NC=1C(=CC=CC1C)C)CN(CC)CC</t>
+  </si>
+  <si>
+    <t>O=C1OC(CC)C(O)(C)C(O)C(C(=O)C(C)CC(O)(C)C(OC2OC(C)CC(N(C)C)C2O)C(C)C(OC3OC(C)C(O)C(OC)(C)C3)C1C)C.O.O</t>
+  </si>
+  <si>
+    <t>O=C(N1CC2=NN=C(N2CC1)C(F)(F)F)CC(N)CC3=CC(F)=C(F)C=C3F</t>
+  </si>
+  <si>
+    <t>O=C(O)C=1C=CC=CC1C=2C=CC(=CC2)CN3C4=CC(=CC(=C4N=C3CCC)C)C5=NC=6C=CC=CC6N5C</t>
+  </si>
+  <si>
+    <t>O=C(O)C(N(C(=O)CCCC)CC1=CC=C(C=C1)C2=CC=CC=C2C=3N=NNN3)C(C)C</t>
+  </si>
+  <si>
+    <t>O=C(N)N1C=2C=CC=CC2CC(O)C=3C=CC=CC31</t>
+  </si>
+  <si>
+    <t>OC1(CCCCC1)C(C2=CC=C(OC)C=C2)CN</t>
+  </si>
+  <si>
+    <t>OC1(CCCCC1)C(C2=CC=C(OC)C=C2)CNC</t>
+  </si>
+  <si>
+    <t>OC1=CC=C2C(=C1)CCC3C2CCC4(C)C(O)C(O)CC34</t>
+  </si>
+  <si>
+    <t>O=S(=O)(NC=1ON=C(C1C)C)C2=CC=C(N)C=C2</t>
+  </si>
+  <si>
+    <t>O=C1NC(=NN2C(=NC(=C12)C)CCC)C=3C=C(C=CC3OCC)S(=O)(=O)N4CCNCC4</t>
+  </si>
+  <si>
+    <t>Cl.ClC1=CC=CC(=C1)C2(O)OCC(NC2C)(C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C1OC(N(C2=NOC(=C2)C)S(=O)(=O)C3=CC=C(N)C=C3)C(O)C(O)C1O</t>
+  </si>
+  <si>
+    <t>OC1=CC=C(C=C1)C(CN)C2(O)CCCCC2</t>
+  </si>
+  <si>
+    <t>O=C1N2C(C3=CC=C4OCOC4=C3)C=5NC=6C=CC=CC6C5CC2C(=O)N(C)C1</t>
+  </si>
+  <si>
+    <t>O=C1NC(=NC=2C(=NN(C12)C)CCC)C=3C=C(C=CC3OCC)S(=O)(=O)N4CCNCC4</t>
+  </si>
+  <si>
+    <t>OC1=CC=C(C=C1)C(CNC)C2(O)CCCCC2</t>
+  </si>
+  <si>
+    <t>O=C(C=1C(OC)=CC(OC)=CC1OC)CCCN2CCCC2</t>
+  </si>
+  <si>
+    <t>O=C(N)N1C=2C=CC=CC2C3OC3C=4C=CC=CC41</t>
+  </si>
+  <si>
+    <t>O=C(N=C(N)N)N</t>
+  </si>
+  <si>
+    <t>OC=1C=CC=CC1O</t>
+  </si>
+  <si>
+    <t>OC1=CC=CC(O)=C1O</t>
+  </si>
+  <si>
+    <t>NNC=1C=CC=CC1</t>
+  </si>
+  <si>
+    <t>O=C1C(=C(N(N1C=2C=CC=CC2)C)C)C(C)C</t>
+  </si>
+  <si>
+    <t>O=C(NC1=CC=C(O)C=C1)C</t>
+  </si>
+  <si>
+    <t>BrC=1C=C(Br)C(N)=C(C1)CNC2CCC(O)CC2</t>
+  </si>
+  <si>
+    <t>O=C(O)C1=C(CSC2=NN=C(S2)C)CSC3N1C(=O)C3NC(=O)CN4N=NN=C4</t>
+  </si>
+  <si>
+    <t>O=S(=O)(NC1=NC=CC=C1)C2=CC=C(N)C=C2</t>
+  </si>
+  <si>
+    <t>ClC1=CC=C(C(Cl)=C1)COC(C2=CC=C(Cl)C=C2Cl)CN3C=NC=C3</t>
+  </si>
+  <si>
+    <t>OC1CCC2C3N(C)CCC42C5=C(OC14)C(OC)=CC=C5C3</t>
+  </si>
+  <si>
+    <t>OC1C=CC2C3N(C)CCC42C5=C(OC14)C(OC)=CC=C5C3</t>
+  </si>
+  <si>
+    <t>O=C(NC1=CC=C(C=C1)S(=O)(=O)NC2=NOC(=C2)C)C</t>
+  </si>
+  <si>
+    <t>O=C1NCNC(=O)C1(C=2C=CC=CC2)CC</t>
+  </si>
+  <si>
+    <t>O=C(O)C=1C=CC=CC1NC=2C(Cl)=CC=C(C2Cl)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C(C1=CC=C(C=C1)CC(C)C)C</t>
+  </si>
+  <si>
+    <t>O=C(OC)C(N(C(=O)COC)C=1C(=CC=CC1C)C)C</t>
+  </si>
+  <si>
+    <t>O=C1N(C=2C=CC(Cl)=CC2C(=NC1)C=3C=CC=CC3)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C1=CN(C2=CC(=C(F)C=C2C1=O)N3CCN(CC)CC3)C4CC4</t>
+  </si>
+  <si>
+    <t>O=C1C=C(N(N1C=2C=CC=CC2)C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C(C=1C=CC=C(C1)C(=O)C=2C=CC=CC2)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C(C)(C)CCCOC1=CC(=CC=C1C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C(C1=CC=C2C=C(OC)C=CC2=C1)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C1=CN(C2=NC(=C(F)C=C2C1=O)N3CCNCC3)CC</t>
+  </si>
+  <si>
+    <t>O=C(N)C=1C(=O)C(N(C)C)C2C(O)C3C(=C)C=4C(Cl)=CC=C(O)C4C(O)=C3C(=O)C2(O)C1O</t>
+  </si>
+  <si>
+    <t>OC(COC1=CC=C(C=C1)COCCOC(C)C)CNC(C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)CN(C)S(=O)(=O)C=1C=CC=CC1</t>
+  </si>
+  <si>
+    <t>ClC=1C=CC=C(C1Cl)C=2N=NC(=NC2N)N</t>
+  </si>
+  <si>
+    <t>O=P1(OCCCN1)N(CCCl)CCCl</t>
+  </si>
+  <si>
+    <t>O=C(O)C1=CC=CC=2N=C(OCC)N(C21)CC=3C=CC(=CC3)C=4C=CC=CC4C5=NN=NN5</t>
+  </si>
+  <si>
+    <t>Cl.O=C(O)C1=CN(C2=C(OC)C(=C(F)C=C2C1=O)N3CC4NCCCC4C3)C5CC5</t>
+  </si>
+  <si>
+    <t>O=C1N(C(=NC12CCCC2)CCCC)CC=3C=CC(=CC3)C=4C=CC=CC4C5=NN=NN5</t>
+  </si>
+  <si>
+    <t>O=C(NCC1N(CC)CCC1)C2=CC(=CC=C2OC)S(=O)(=O)N</t>
+  </si>
+  <si>
+    <t>N#CC(C1=CC=C(OC)C(OC)=C1)(CCCNC)C(C)C</t>
+  </si>
+  <si>
+    <t>O=C1N=C(NN2C(=NC(=C12)C)CCC)C=3C=C(C=CC3OCC)S(=O)(=O)N4CCN(CC)CC4</t>
+  </si>
+  <si>
+    <t>O=S(=O)(NC=1N=C(N=C(OC)C1)OC)C2=CC=C(N)C=C2</t>
+  </si>
+  <si>
+    <t>O=S(=O)(NC=1N=CN=C(OC)C1OC)C2=CC=C(N)C=C2</t>
+  </si>
+  <si>
+    <t>O=S(=O)(NC1=NC=CC(=N1)C)C2=CC=C(N)C=C2</t>
+  </si>
+  <si>
+    <t>O=S(=O)(NC1=NC=CS1)C2=CC=C(N)C=C2</t>
+  </si>
+  <si>
+    <t>O=C(O)C=CC(=O)O.O=C(OC1CC(C=C)(C)C(O)C(C)C23CCC(=O)C2C1(C)C(C)CC3)CSCCN(CC)CC</t>
+  </si>
+  <si>
+    <t>O=N(=O)C1=CN=C(N1CCO)C</t>
+  </si>
+  <si>
+    <t>O=C(O)CC=1C=CC=CC1NC=2C(Cl)=CC(O)=CC2Cl</t>
+  </si>
+  <si>
+    <t>O=C(O)C1=CC(=C(Cl)C=C1NCC=2OC=CC2)S(=O)(=O)N</t>
+  </si>
+  <si>
+    <t>[K].ClC=1N=C(N(C1CO)CC=2C=CC(=CC2)C=3C=CC=CC3C4=NN=NN4)CCCC</t>
+  </si>
+  <si>
+    <t>O=C(NC1=NC=CC=C1)C2=C(O)C=3C=CC=CC3S(=O)(=O)N2C</t>
+  </si>
+  <si>
+    <t>O=C1NC(=S)NC(=O)C1(CC)C(C)CCC</t>
+  </si>
+  <si>
+    <t>O=C(NC(CO)C(O)C1=CC=C(C=C1)N(=O)=O)C(Cl)Cl</t>
+  </si>
+  <si>
+    <t>O=N(=O)C1=CC=C(OC)C(N)=C1</t>
+  </si>
+  <si>
+    <t>OC1CC2=CCC3C(CCC4(C)C(CCC34)C(C)CCC(CC)C(C)C)C2(C)CC1</t>
+  </si>
+  <si>
+    <t>O=S(=O)(C1=CC=C(N)C=C1)C2=CC=C(N)C=C2</t>
+  </si>
+  <si>
+    <t>OC1(C=2C=CC=C(OC)C2)CCCCC1CN(C)C</t>
+  </si>
+  <si>
+    <t>O=C1NC=2C=CC(Cl)=CC2C(=NC1O)C=3C=CC=CC3</t>
+  </si>
+  <si>
+    <t>O=C1N(C=2C=CC(Cl)=CC2C(=NC1O)C=3C=CC=CC3)C</t>
+  </si>
+  <si>
+    <t>FC(F)(F)C1=CC=C(OC(C=2C=CC=CC2)CCNC)C=C1</t>
+  </si>
+  <si>
+    <t>O=C(O)CC=1C=CC=CC1NC=2C(Cl)=CC=CC2Cl</t>
+  </si>
+  <si>
+    <t>O=C1OCCN1N=CC=2OC(=CC2)N(=O)=O</t>
+  </si>
+  <si>
+    <t>O=C1N=C(N)NC2=C1N=CN2COCCO</t>
+  </si>
+  <si>
+    <t>ClC1=CC=C(C(Cl)=C1)C(O)(CN2N=CN=C2)CCCC</t>
+  </si>
+  <si>
+    <t>O=C(O)C(OC1=CC=C(C=C1)CCNC(=O)C2=CC=C(Cl)C=C2)(C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)CC=1C=2C=C(OC)C=CC2N(C(=O)C3=CC=C(Cl)C=C3)C1C</t>
+  </si>
+  <si>
+    <t>O=C(O)C(OC1=CC=C(C=C1)C(=O)C2=CC=C(Cl)C=C2)(C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)C=1C=CC=CC1NC=2C=CC=C(Cl)C2C</t>
+  </si>
+  <si>
+    <t>O=C1C(=C(N(N1C=2C=CC=CC2)C)C)N(C)C</t>
+  </si>
+  <si>
+    <t>O=C(OCC)C(OC1=CC=C(Cl)C=C1)(C)C</t>
+  </si>
+  <si>
+    <t>O=C(O)CC(O)CC(O)CCN1C(C=2C=CC(F)=CC2)=C(C=3C=CC=CC3)C(C(=O)NC=4C=CC=CC4)=C1C(C)C</t>
+  </si>
+  <si>
+    <t>OC(COC1=CC=CC=2NC=CC12)CNC(C)C</t>
+  </si>
+  <si>
+    <t>O=C1OC(C)C(C)C(O)C(C(=O)C2(OC2)CC(C)C(OC3OC(C)CC(N(C)C)C3O)C(C)C(OC4OC(C)C(O)C(OC)C4)C1C)C</t>
+  </si>
+  <si>
+    <t>O=C1OC(CCC2C(C=CC3=CC(C)CC(OC(=O)C(C)(C)CC)C32)C)CC(O)C1</t>
+  </si>
+  <si>
+    <t>O=C(O)C1=CN(C2=CC(=C(F)C=C2C1=O)N3CCNCC3)CC</t>
+  </si>
+  <si>
+    <t>ClC1=CC=C(C(Cl)=C1)C(OCC=C)CN2C=NC=C2</t>
+  </si>
+  <si>
+    <t>OC(COC1=CC=CC=2C=CC=CC12)CNC(C)C</t>
+  </si>
+  <si>
+    <t>C#CC1(O)CCC2C3CCC4=CC(O)=CC=C4C3CCC21C</t>
+  </si>
+  <si>
+    <t>OC(COC1=CC=CC2=C1CC(O)C(O)C2)CNC(C)(C)C</t>
+  </si>
+  <si>
+    <t>OC(COC1=CC=C(C=C1)CCOC)CNC(C)C</t>
+  </si>
+  <si>
+    <t>OC(COC1=CC=C(C=C1)CCOCC2CC2)CNC(C)C</t>
+  </si>
+  <si>
+    <t>OC(COC1=CC=CC=2NC=3C=CC=CC3C12)CNC(C)C</t>
+  </si>
+  <si>
+    <t>O=C(OC(C)C)C(OC1=CC=C(C=C1)C(=O)C2=CC=C(Cl)C=C2)(C)C</t>
+  </si>
+  <si>
+    <t>O=C(OCCOC(=O)C(OC1=CC=C(Cl)C=C1)(C)C)C=2C=NC=CC2</t>
+  </si>
+  <si>
+    <t>Cl.OC1=CC=C(C=C1)C(CN(C)C)C2(O)CCCCC2</t>
+  </si>
+  <si>
+    <t>SMILES PubChem</t>
+  </si>
+  <si>
+    <t>SMILES CAS</t>
+  </si>
+  <si>
+    <t>InChI</t>
+  </si>
+  <si>
+    <t>InChIKey</t>
+  </si>
+  <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>O=C1OC(CC)C(O)(C)C(O)C(C(=O)C(C)CC(O)(C)C(OC2OC(C)CC(N(C)C)C2O)C(C)C(OC3OC(C)C(O)C(OC)(C)C3)C1C)C</t>
-  </si>
-  <si>
-    <t>O=S(=O)(N)C=1C=C2C(=CC1Cl)NCNS2(=O)=O</t>
-  </si>
-  <si>
-    <t>O=C(O)C1N2C(=O)C(NC(=O)C=3C(=NOC3C)C=4C(Cl)=CC=CC4Cl)C2SC1(C)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C1N2C(=O)C(NC(=O)C=3C(=NOC3C)C=4C=CC=CC4Cl)C2SC1(C)C</t>
-  </si>
-  <si>
-    <t>O=C(OCC1=NC=C(N1C)[N+](=O)[O-])N</t>
-  </si>
-  <si>
-    <t>O=C(O)C1N2C(=O)C(NC(=O)C(NC(=O)N3C(=O)C(=O)N(CC)CC3)C=4C=CC=CC4)C2SC1(C)C</t>
-  </si>
-  <si>
-    <t>[Na+].O=C([N-]S(=O)(=O)C=1C=NC=CC1NC2=CC=CC(=C2)C)NC(C)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C1N2C(=O)C(NC(=O)COC=3C=CC=CC3)C2SC1(C)C</t>
-  </si>
-  <si>
-    <t>FC(F)(F)C1=CC=C(O)C=C1</t>
-  </si>
-  <si>
-    <t>O=C(O)C1N2C(=O)C(NC(=O)C=3C(=NOC3C)C=4C=CC=CC4)C2SC1(C)C</t>
-  </si>
-  <si>
-    <t>N#CC1=CC=C(C=C1C(F)(F)F)NC(=O)C(O)(C)CS(=O)(=O)C2=CC=C(F)C=C2</t>
-  </si>
-  <si>
-    <t>O=C(O)C1N2C(=O)C(NC(=O)C3=C(OCC)C=CC=4C=CC=CC43)C2SC1(C)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C1N2C(=O)C(NC(=O)C(NC(=O)N3C(=O)N(CC3)S(=O)(=O)C)C=4C=CC=CC4)C2SC1(C)C</t>
-  </si>
-  <si>
-    <t>O=[N+]([O-])C1=CN=C(N1C)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C1N2C(=O)C(NC(=O)C=3C(OC)=CC=CC3OC)C2SC1(C)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C1N2C(=O)C(NC(=O)C=3C(=NOC3C)C=4C(F)=CC=CC4Cl)C2SC1(C)C</t>
-  </si>
-  <si>
-    <t>O(C1=CC=CC=2C=CC=CC12)C(C=3SC=CC3)CCNC</t>
-  </si>
-  <si>
-    <t>O=C1NC(=O)C(C(=O)N1)(C=2C=CC=CC2)CC</t>
-  </si>
-  <si>
-    <t>OCCOCCN1CCN(C2=NC=3C=CC=CC3SC=4C=CC=CC42)CC1</t>
-  </si>
-  <si>
-    <t>O=C1NC(=NC=2C(=NN(C12)C)CCC)C=3C=C(C=CC3OCC)S(=O)(=O)N4CCN(C)CC4</t>
-  </si>
-  <si>
-    <t>O=C(O)C1=CN(C2=CC(=C(F)C=C2C1=O)N3CCNCC3)C4CC4</t>
-  </si>
-  <si>
-    <t>O=CCC1CC(C(=O)C=CC(=CC(COC2OC(C)C(O)C(OC)C2OC)C(OC(=O)CC(O)C(C)C1OC3OC(C)C(OC4OC(C)C(O)C(O)(C)C4)C(N(C)C)C3O)CC)C)C</t>
-  </si>
-  <si>
-    <t>N=1C=C(C(=NC1N)N)CC2=CC(OC)=C(OC)C(OC)=C2</t>
-  </si>
-  <si>
-    <t>O=CCC1CC(C)C(OC2OC(C)C(N(C)C)CC2)C=CC=CCC(OC(=O)CC(O)C(OC)C1OC3OC(C)C(OC4OC(C)C(O)C(O)(C)C4)C(N(C)C)C3O)C</t>
-  </si>
-  <si>
-    <t>O=C1OC(CC)C(O)(C)C(O)C(C(=NOCOCCOC)C(C)CC(O)(C)C(OC2OC(C)CC(N(C)C)C2O)C(C)C(OC3OC(C)C(O)C(OC)(C)C3)C1C)C</t>
-  </si>
-  <si>
-    <t>OCC1OC(N2C=NC=3C(=NC=NC32)N)C(O)C1O</t>
-  </si>
-  <si>
-    <t>O=P1(OCCCN1CCCl)NCCCl</t>
-  </si>
-  <si>
-    <t>O=C1OC2CC(OC3(OC(C(C)CC)C(C)CC3)C2)CC=C(C)C(OC4OC(C)C(OC5OC(C)C(O)C(OC)C5)C(OC)C4)C(C=CC=C6COC7C(O)C(=CC1C67O)C)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C1=CC=C(C=C1)C2=CC=CC=C2C=3N=NNN3</t>
-  </si>
-  <si>
-    <t>O=C(N1CCN(C2=CC=C(OCC3OC(OC3)(C4=CC=C(Cl)C=C4Cl)CN5C=NC=C5)C=C2)CC1)C</t>
-  </si>
-  <si>
-    <t>O=C(O)CC1=CC=C(OCC(O)CNC(C)C)C=C1</t>
-  </si>
-  <si>
-    <t>O=C(O)C1NC(=O)C2NC(=O)C(NC(=O)C3NC(=O)C(NC(=O)C(NC(=O)C(NC)CC(C)C)C(O)C4=CC=C(OC5=CC3=CC(OC6=CC=C(C=C6Cl)C2O)=C5OC7OC(CO)C(O)C(O)C7OC8OC(C)C(O)C(N)(C)C8)C(Cl)=C4)CC(=O)N)C=9C=CC(O)=C(C9)C%10=C(O)C=C(O)C=C%101</t>
-  </si>
-  <si>
-    <t>O=C(NCC1N(CC)CCC1)C=2C=C(C(N)=CC2OC)S(=O)(=O)CC</t>
-  </si>
-  <si>
-    <t>O=C(NCCN1CCOCC1)C2=CC=C(Cl)C=C2</t>
-  </si>
-  <si>
-    <t>O=C(N)C=1C(=O)C(N(C)C)C2CC3C(C(=O)C2(O)C1O)=C(O)C=4C(O)=CC=CC4C3(O)C</t>
-  </si>
-  <si>
-    <t>O=C1NC=2C(=NC=CC2C)N(C3=NC=CC=C13)C4CC4</t>
-  </si>
-  <si>
-    <t>O=C(N)C=1C(=O)C(N(C)C)C2C(O)C3C(C(=O)C2(O)C1O)=C(O)C=4C(O)=CC=CC4C3(O)C</t>
-  </si>
-  <si>
-    <t>O=C1C=C2CCC3C(CCC4(C)C(C(=O)C)CCC34)C2(C)CC1</t>
-  </si>
-  <si>
-    <t>O=C(O)C1N(C(=O)C(NC(C(=O)OCC)CCC=2C=CC=CC2)C)C3CCCC3C1</t>
-  </si>
-  <si>
-    <t>O=C(N)C=1C(=O)C(N(C)C)C2C(O)C3C(C(=O)C2(O)C1O)=C(O)C=4C(O)=CC=CC4C3C</t>
-  </si>
-  <si>
-    <t>O=C1NC(=NC2=C1N=CN2CCC(CO)CO)N</t>
-  </si>
-  <si>
-    <t>O=C1C=C2CCC3C(CCC4(C)C(O)CCC34)C2(C)CC1</t>
-  </si>
-  <si>
-    <t>O=C(O)C(N)CCCCNCNC(=O)C=1C(=O)C(N(C)C)C2CC3C(C(=O)C2(O)C1O)=C(O)C=4C(O)=CC=CC4C3(O)C</t>
-  </si>
-  <si>
-    <t>O=C1NC(=O)C(C(=O)N1)(CC)C(C)CCC</t>
-  </si>
-  <si>
-    <t>O=C(O)C1=CN2C3=C(OCC2C)C(=C(F)C=C3C1=O)N4CCN(C)CC4</t>
-  </si>
-  <si>
-    <t>O=C1CCC2(C)C(C1)CCC3C4CCC(O)C4(C)CCC32</t>
-  </si>
-  <si>
-    <t>O=C(N)N1C=2C=CC=CC2CCC=3C=CC=CC31</t>
-  </si>
-  <si>
-    <t>O=CNC=1C(=O)N(C=2C=CC=CC2)N(C1C)C</t>
-  </si>
-  <si>
-    <t>ClC=1N=C(N(C1CO)CC2=CC=C(C=C2)C3=CC=CC=C3C=4N=NNN4)CCCC</t>
-  </si>
-  <si>
-    <t>O=C(NC=1C(=O)N(C=2C=CC=CC2)N(C1C)C)C</t>
-  </si>
-  <si>
-    <t>OC1=CC=C(C=C1)C(CN(C)C)C2(O)CCCCC2</t>
-  </si>
-  <si>
-    <t>O=C(O)C(C=1C=CC=C(OC=2C=CC=CC2)C1)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C(C=1C=CC=CC1)C2NCCCC2</t>
-  </si>
-  <si>
-    <t>O(C1=CC=C(C=C1)C(C=2C=CC=CC2)=C(C=3C=CC=CC3)CC)CCN(C)C</t>
-  </si>
-  <si>
-    <t>ClC=1C=CC2=NSN=C2C1NC3=NCCN3</t>
-  </si>
-  <si>
-    <t>N#CC(C1=CC=C(OC)C(OC)=C1)(CCCN(C)CCC2=CC=C(OC)C(OC)=C2)C(C)C</t>
-  </si>
-  <si>
-    <t>O=C1CCC2C3CCC4CC(O)CCC4(C)C3CCC12C</t>
-  </si>
-  <si>
-    <t>O=C(O)CC1(CN)CCCCC1</t>
-  </si>
-  <si>
-    <t>[N-]=[N+]=NC1CC(OC1CO)N2C=C(C(=O)NC2=O)C</t>
-  </si>
-  <si>
-    <t>N#CC1=CC=C(C(OC)=C1)C2C=3C(=NC=C(C3NC(=C2C(=O)N)C)C)OCC</t>
-  </si>
-  <si>
-    <t>N=C(N=C(N)N)N(C)C</t>
-  </si>
-  <si>
-    <t>O=C1CCC2C3CC=C4CC(O)CCC4(C)C3CCC12C</t>
-  </si>
-  <si>
-    <t>O=S(=O)(NC1=NC=CC=N1)C2=CC=C(N)C=C2</t>
-  </si>
-  <si>
-    <t>O=C1C(N)=C(N(N1C=2C=CC=CC2)C)C</t>
-  </si>
-  <si>
-    <t>[H]C12CCC3(C)C(O)CCC3([H])C2([H])CCC4=CC(=O)CCC41C</t>
-  </si>
-  <si>
-    <t>O=S(=O)(NC1=CC=C(C=C1)C(O)CNC(C)C)C</t>
-  </si>
-  <si>
-    <t>O=C(N)CC1=CC=C(OCC(O)CNC(C)C)C=C1</t>
-  </si>
-  <si>
-    <t>O=C(OC1CCC2C3CCC4=CC(=O)CCC4(C)C3CCC12C)CCC5CCCC5</t>
-  </si>
-  <si>
-    <t>OC1(CCCCC1)C(C2=CC=C(OC)C=C2)CN(C)C</t>
-  </si>
-  <si>
-    <t>O=C(N)N1C=2C=CC=CC2C(O)C(O)C=3C=CC=CC31</t>
-  </si>
-  <si>
-    <t>O=C(N)C(N1C(=O)CCC1)CC</t>
-  </si>
-  <si>
-    <t>O=C(NC=1C(=CC=CC1C)C)CN(CC)CC</t>
-  </si>
-  <si>
-    <t>O=C1OC(CC)C(O)(C)C(O)C(C(=O)C(C)CC(O)(C)C(OC2OC(C)CC(N(C)C)C2O)C(C)C(OC3OC(C)C(O)C(OC)(C)C3)C1C)C.O.O</t>
-  </si>
-  <si>
-    <t>O=C(N1CC2=NN=C(N2CC1)C(F)(F)F)CC(N)CC3=CC(F)=C(F)C=C3F</t>
-  </si>
-  <si>
-    <t>O=C(O)C=1C=CC=CC1C=2C=CC(=CC2)CN3C4=CC(=CC(=C4N=C3CCC)C)C5=NC=6C=CC=CC6N5C</t>
-  </si>
-  <si>
-    <t>O=C(O)C(N(C(=O)CCCC)CC1=CC=C(C=C1)C2=CC=CC=C2C=3N=NNN3)C(C)C</t>
-  </si>
-  <si>
-    <t>O=C(N)N1C=2C=CC=CC2CC(O)C=3C=CC=CC31</t>
-  </si>
-  <si>
-    <t>OC1(CCCCC1)C(C2=CC=C(OC)C=C2)CN</t>
-  </si>
-  <si>
-    <t>OC1(CCCCC1)C(C2=CC=C(OC)C=C2)CNC</t>
-  </si>
-  <si>
-    <t>OC1=CC=C2C(=C1)CCC3C2CCC4(C)C(O)C(O)CC34</t>
-  </si>
-  <si>
-    <t>O=S(=O)(NC=1ON=C(C1C)C)C2=CC=C(N)C=C2</t>
-  </si>
-  <si>
-    <t>O=C1NC(=NN2C(=NC(=C12)C)CCC)C=3C=C(C=CC3OCC)S(=O)(=O)N4CCNCC4</t>
-  </si>
-  <si>
-    <t>Cl.ClC1=CC=CC(=C1)C2(O)OCC(NC2C)(C)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C1OC(N(C2=NOC(=C2)C)S(=O)(=O)C3=CC=C(N)C=C3)C(O)C(O)C1O</t>
-  </si>
-  <si>
-    <t>OC1=CC=C(C=C1)C(CN)C2(O)CCCCC2</t>
-  </si>
-  <si>
-    <t>O=C1N2C(C3=CC=C4OCOC4=C3)C=5NC=6C=CC=CC6C5CC2C(=O)N(C)C1</t>
-  </si>
-  <si>
-    <t>O=C1NC(=NC=2C(=NN(C12)C)CCC)C=3C=C(C=CC3OCC)S(=O)(=O)N4CCNCC4</t>
-  </si>
-  <si>
-    <t>OC1=CC=C(C=C1)C(CNC)C2(O)CCCCC2</t>
-  </si>
-  <si>
-    <t>O=C(C=1C(OC)=CC(OC)=CC1OC)CCCN2CCCC2</t>
-  </si>
-  <si>
-    <t>O=C(N)N1C=2C=CC=CC2C3OC3C=4C=CC=CC41</t>
-  </si>
-  <si>
-    <t>O=C(N=C(N)N)N</t>
-  </si>
-  <si>
-    <t>OC=1C=CC=CC1O</t>
-  </si>
-  <si>
-    <t>OC1=CC=CC(O)=C1O</t>
-  </si>
-  <si>
-    <t>NNC=1C=CC=CC1</t>
-  </si>
-  <si>
-    <t>O=C1C(=C(N(N1C=2C=CC=CC2)C)C)C(C)C</t>
-  </si>
-  <si>
-    <t>O=C(NC1=CC=C(O)C=C1)C</t>
-  </si>
-  <si>
-    <t>BrC=1C=C(Br)C(N)=C(C1)CNC2CCC(O)CC2</t>
-  </si>
-  <si>
-    <t>O=C(O)C1=C(CSC2=NN=C(S2)C)CSC3N1C(=O)C3NC(=O)CN4N=NN=C4</t>
-  </si>
-  <si>
-    <t>O=S(=O)(NC1=NC=CC=C1)C2=CC=C(N)C=C2</t>
-  </si>
-  <si>
-    <t>ClC1=CC=C(C(Cl)=C1)COC(C2=CC=C(Cl)C=C2Cl)CN3C=NC=C3</t>
-  </si>
-  <si>
-    <t>OC1CCC2C3N(C)CCC42C5=C(OC14)C(OC)=CC=C5C3</t>
-  </si>
-  <si>
-    <t>OC1C=CC2C3N(C)CCC42C5=C(OC14)C(OC)=CC=C5C3</t>
-  </si>
-  <si>
-    <t>O=C(NC1=CC=C(C=C1)S(=O)(=O)NC2=NOC(=C2)C)C</t>
-  </si>
-  <si>
-    <t>O=C1NCNC(=O)C1(C=2C=CC=CC2)CC</t>
-  </si>
-  <si>
-    <t>O=C(O)C=1C=CC=CC1NC=2C(Cl)=CC=C(C2Cl)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C(C1=CC=C(C=C1)CC(C)C)C</t>
-  </si>
-  <si>
-    <t>O=C(OC)C(N(C(=O)COC)C=1C(=CC=CC1C)C)C</t>
-  </si>
-  <si>
-    <t>O=C1N(C=2C=CC(Cl)=CC2C(=NC1)C=3C=CC=CC3)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C1=CN(C2=CC(=C(F)C=C2C1=O)N3CCN(CC)CC3)C4CC4</t>
-  </si>
-  <si>
-    <t>O=C1C=C(N(N1C=2C=CC=CC2)C)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C(C=1C=CC=C(C1)C(=O)C=2C=CC=CC2)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C(C)(C)CCCOC1=CC(=CC=C1C)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C(C1=CC=C2C=C(OC)C=CC2=C1)C</t>
-  </si>
-  <si>
-    <t>O=C(O)C1=CN(C2=NC(=C(F)C=C2C1=O)N3CCNCC3)CC</t>
-  </si>
-  <si>
-    <t>O=C(N)C=1C(=O)C(N(C)C)C2C(O)C3C(=C)C=4C(Cl)=CC=C(O)C4C(O)=C3C(=O)C2(O)C1O</t>
-  </si>
-  <si>
-    <t>OC(COC1=CC=C(C=C1)COCCOC(C)C)CNC(C)C</t>
-  </si>
-  <si>
-    <t>O=C(O)CN(C)S(=O)(=O)C=1C=CC=CC1</t>
   </si>
 </sst>
 </file>
@@ -3788,21 +3953,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D85AD87E-60E1-43C1-B2F6-6516736CC0D1}">
-  <dimension ref="A1:E228"/>
+  <dimension ref="A1:H228"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="45.44140625" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" customWidth="1"/>
-    <col min="4" max="4" width="78.5546875" customWidth="1"/>
-    <col min="5" max="5" width="137.5546875" customWidth="1"/>
+    <col min="4" max="4" width="16.88671875" customWidth="1"/>
+    <col min="6" max="6" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3813,47 +3978,74 @@
         <v>232</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>233</v>
+        <v>1137</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>912</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1138</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>1139</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>913</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>912</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D3" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F3" t="s">
+        <v>913</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
@@ -3861,33 +4053,51 @@
         <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F4" t="s">
+        <v>914</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H4" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>916</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>915</v>
+      </c>
+      <c r="G5" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
@@ -3895,16 +4105,25 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F6" t="s">
+        <v>916</v>
+      </c>
+      <c r="G6" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H6" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
@@ -3912,3774 +4131,5773 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D7" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>918</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F7" t="s">
+        <v>917</v>
+      </c>
+      <c r="G7" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H7" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D8" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E8" t="s">
-        <v>919</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F8" t="s">
+        <v>918</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H8" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D9" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F9" t="s">
+        <v>919</v>
+      </c>
+      <c r="G9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H9" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E10" t="s">
-        <v>921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F10" t="s">
+        <v>920</v>
+      </c>
+      <c r="G10" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H10" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C11" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>922</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F11" t="s">
+        <v>921</v>
+      </c>
+      <c r="G11" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H11" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C12" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" t="s">
         <v>348</v>
       </c>
-      <c r="D12" t="s">
-        <v>349</v>
-      </c>
       <c r="E12" t="s">
-        <v>923</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F12" t="s">
+        <v>922</v>
+      </c>
+      <c r="G12" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H12" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C13" t="s">
+        <v>349</v>
+      </c>
+      <c r="D13" t="s">
         <v>350</v>
       </c>
-      <c r="D13" t="s">
-        <v>351</v>
-      </c>
       <c r="E13" t="s">
-        <v>924</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>923</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H13" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
+        <v>351</v>
+      </c>
+      <c r="D14" t="s">
         <v>352</v>
       </c>
-      <c r="D14" t="s">
-        <v>353</v>
-      </c>
       <c r="E14" t="s">
-        <v>925</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F14" t="s">
+        <v>924</v>
+      </c>
+      <c r="G14" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H14" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C15" t="s">
+        <v>353</v>
+      </c>
+      <c r="D15" t="s">
         <v>354</v>
       </c>
-      <c r="D15" t="s">
-        <v>355</v>
-      </c>
       <c r="E15" t="s">
-        <v>926</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F15" t="s">
+        <v>925</v>
+      </c>
+      <c r="G15" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H15" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C16" t="s">
+        <v>355</v>
+      </c>
+      <c r="D16" t="s">
         <v>356</v>
       </c>
-      <c r="D16" t="s">
-        <v>357</v>
-      </c>
       <c r="E16" t="s">
-        <v>927</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F16" t="s">
+        <v>926</v>
+      </c>
+      <c r="G16" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H16" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C17" t="s">
+        <v>357</v>
+      </c>
+      <c r="D17" t="s">
         <v>358</v>
       </c>
-      <c r="D17" t="s">
-        <v>359</v>
-      </c>
       <c r="E17" t="s">
-        <v>928</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F17" t="s">
+        <v>927</v>
+      </c>
+      <c r="G17" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H17" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>21</v>
       </c>
       <c r="B18" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" t="s">
+        <v>359</v>
+      </c>
+      <c r="D18" t="s">
         <v>361</v>
       </c>
-      <c r="C18" t="s">
-        <v>360</v>
-      </c>
-      <c r="D18" t="s">
-        <v>362</v>
-      </c>
       <c r="E18" t="s">
-        <v>929</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F18" t="s">
+        <v>928</v>
+      </c>
+      <c r="G18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H18" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C19" t="s">
+        <v>362</v>
+      </c>
+      <c r="D19" t="s">
         <v>363</v>
       </c>
-      <c r="D19" t="s">
-        <v>364</v>
-      </c>
       <c r="E19" t="s">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F19" t="s">
+        <v>929</v>
+      </c>
+      <c r="G19" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H19" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C20" t="s">
+        <v>364</v>
+      </c>
+      <c r="D20" t="s">
         <v>365</v>
       </c>
-      <c r="D20" t="s">
-        <v>366</v>
-      </c>
       <c r="E20" t="s">
-        <v>931</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F20" t="s">
+        <v>930</v>
+      </c>
+      <c r="G20" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H20" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C21" t="s">
+        <v>366</v>
+      </c>
+      <c r="D21" t="s">
         <v>367</v>
       </c>
-      <c r="D21" t="s">
-        <v>368</v>
-      </c>
       <c r="E21" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F21" t="s">
+        <v>931</v>
+      </c>
+      <c r="G21" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H21" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B22" t="s">
+        <v>368</v>
+      </c>
+      <c r="C22" t="s">
+        <v>370</v>
+      </c>
+      <c r="D22" t="s">
         <v>369</v>
       </c>
-      <c r="C22" t="s">
-        <v>371</v>
-      </c>
-      <c r="D22" t="s">
-        <v>370</v>
-      </c>
       <c r="E22" t="s">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F22" t="s">
+        <v>932</v>
+      </c>
+      <c r="G22" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H22" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C23" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D23" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E23" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F23" t="s">
+        <v>933</v>
+      </c>
+      <c r="G23" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H23" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C24" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="D24" t="s">
         <v>374</v>
       </c>
-      <c r="D24" t="s">
-        <v>375</v>
-      </c>
       <c r="E24" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F24" t="s">
+        <v>934</v>
+      </c>
+      <c r="G24" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H24" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D25" t="s">
         <v>383</v>
       </c>
-      <c r="D25" t="s">
-        <v>384</v>
-      </c>
       <c r="E25" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F25" t="s">
+        <v>935</v>
+      </c>
+      <c r="G25" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H25" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C26" t="s">
+        <v>384</v>
+      </c>
+      <c r="D26" t="s">
         <v>385</v>
       </c>
-      <c r="D26" t="s">
-        <v>386</v>
-      </c>
       <c r="E26" t="s">
-        <v>937</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F26" t="s">
+        <v>936</v>
+      </c>
+      <c r="G26" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H26" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D27" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E27" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F27" t="s">
+        <v>937</v>
+      </c>
+      <c r="G27" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H27" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C28" t="s">
+        <v>388</v>
+      </c>
+      <c r="D28" t="s">
         <v>389</v>
       </c>
-      <c r="D28" t="s">
-        <v>390</v>
-      </c>
       <c r="E28" t="s">
-        <v>939</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F28" t="s">
+        <v>938</v>
+      </c>
+      <c r="G28" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H28" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B29" t="s">
+        <v>390</v>
+      </c>
+      <c r="C29" t="s">
         <v>391</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>392</v>
       </c>
-      <c r="D29" t="s">
-        <v>393</v>
-      </c>
       <c r="E29" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F29" t="s">
+        <v>939</v>
+      </c>
+      <c r="G29" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H29" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B30" t="s">
+        <v>394</v>
+      </c>
+      <c r="C30" t="s">
+        <v>393</v>
+      </c>
+      <c r="D30" t="s">
         <v>395</v>
       </c>
-      <c r="C30" t="s">
-        <v>394</v>
-      </c>
-      <c r="D30" t="s">
-        <v>396</v>
-      </c>
       <c r="E30" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F30" t="s">
+        <v>940</v>
+      </c>
+      <c r="G30" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H30" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C31" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D31" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E31" t="s">
-        <v>942</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F31" t="s">
+        <v>941</v>
+      </c>
+      <c r="G31" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H31" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C32" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D32" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="E32" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F32" t="s">
+        <v>942</v>
+      </c>
+      <c r="G32" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H32" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C33" t="s">
+        <v>400</v>
+      </c>
+      <c r="D33" t="s">
         <v>401</v>
       </c>
-      <c r="D33" t="s">
-        <v>402</v>
-      </c>
       <c r="E33" t="s">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F33" t="s">
+        <v>943</v>
+      </c>
+      <c r="G33" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H33" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" t="s">
         <v>403</v>
       </c>
-      <c r="D34" t="s">
-        <v>404</v>
-      </c>
       <c r="E34" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F34" t="s">
+        <v>944</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H34" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B35" t="s">
+        <v>405</v>
+      </c>
+      <c r="C35" t="s">
+        <v>404</v>
+      </c>
+      <c r="D35" t="s">
         <v>406</v>
       </c>
-      <c r="C35" t="s">
-        <v>405</v>
-      </c>
-      <c r="D35" t="s">
-        <v>407</v>
-      </c>
       <c r="E35" t="s">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F35" t="s">
+        <v>945</v>
+      </c>
+      <c r="G35" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H35" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C36" t="s">
+        <v>407</v>
+      </c>
+      <c r="D36" t="s">
         <v>408</v>
       </c>
-      <c r="D36" t="s">
-        <v>409</v>
-      </c>
       <c r="E36" t="s">
-        <v>947</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F36" t="s">
+        <v>946</v>
+      </c>
+      <c r="G36" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H36" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C37" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D37" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E37" t="s">
-        <v>948</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F37" t="s">
+        <v>947</v>
+      </c>
+      <c r="G37" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H37" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C38" t="s">
+        <v>411</v>
+      </c>
+      <c r="D38" t="s">
         <v>412</v>
       </c>
-      <c r="D38" t="s">
-        <v>413</v>
-      </c>
       <c r="E38" t="s">
-        <v>949</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F38" t="s">
+        <v>948</v>
+      </c>
+      <c r="G38" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H38" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C39" t="s">
+        <v>413</v>
+      </c>
+      <c r="D39" t="s">
         <v>414</v>
       </c>
-      <c r="D39" t="s">
-        <v>415</v>
-      </c>
       <c r="E39" t="s">
-        <v>950</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F39" t="s">
+        <v>949</v>
+      </c>
+      <c r="G39" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H39" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C40" t="s">
+        <v>422</v>
+      </c>
+      <c r="D40" t="s">
         <v>423</v>
       </c>
-      <c r="D40" t="s">
-        <v>424</v>
-      </c>
       <c r="E40" t="s">
-        <v>951</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F40" t="s">
+        <v>950</v>
+      </c>
+      <c r="G40" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H40" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C41" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="D41" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E41" t="s">
-        <v>952</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F41" t="s">
+        <v>951</v>
+      </c>
+      <c r="G41" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H41" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C42" t="s">
+        <v>426</v>
+      </c>
+      <c r="D42" t="s">
         <v>427</v>
       </c>
-      <c r="D42" t="s">
-        <v>428</v>
-      </c>
       <c r="E42" t="s">
-        <v>953</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F42" t="s">
+        <v>952</v>
+      </c>
+      <c r="G42" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H42" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C43" t="s">
+        <v>428</v>
+      </c>
+      <c r="D43" t="s">
         <v>429</v>
       </c>
-      <c r="D43" t="s">
-        <v>430</v>
-      </c>
       <c r="E43" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F43" t="s">
+        <v>953</v>
+      </c>
+      <c r="G43" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H43" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C44" t="s">
+        <v>430</v>
+      </c>
+      <c r="D44" t="s">
         <v>431</v>
       </c>
-      <c r="D44" t="s">
-        <v>432</v>
-      </c>
       <c r="E44" t="s">
-        <v>955</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F44" t="s">
+        <v>954</v>
+      </c>
+      <c r="G44" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H44" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C45" t="s">
+        <v>432</v>
+      </c>
+      <c r="D45" t="s">
         <v>433</v>
       </c>
-      <c r="D45" t="s">
-        <v>434</v>
-      </c>
       <c r="E45" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F45" t="s">
+        <v>955</v>
+      </c>
+      <c r="G45" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H45" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C46" t="s">
+        <v>434</v>
+      </c>
+      <c r="D46" t="s">
         <v>435</v>
       </c>
-      <c r="D46" t="s">
-        <v>436</v>
-      </c>
       <c r="E46" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F46" t="s">
+        <v>956</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H46" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C47" t="s">
+        <v>436</v>
+      </c>
+      <c r="D47" t="s">
         <v>437</v>
       </c>
-      <c r="D47" t="s">
-        <v>438</v>
-      </c>
       <c r="E47" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F47" t="s">
+        <v>957</v>
+      </c>
+      <c r="G47" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H47" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C48" t="s">
+        <v>438</v>
+      </c>
+      <c r="D48" t="s">
         <v>439</v>
       </c>
-      <c r="D48" t="s">
-        <v>440</v>
-      </c>
       <c r="E48" t="s">
-        <v>959</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F48" t="s">
+        <v>958</v>
+      </c>
+      <c r="G48" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H48" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C49" t="s">
+        <v>440</v>
+      </c>
+      <c r="D49" t="s">
         <v>441</v>
       </c>
-      <c r="D49" t="s">
-        <v>442</v>
-      </c>
       <c r="E49" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F49" t="s">
+        <v>959</v>
+      </c>
+      <c r="G49" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H49" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C50" t="s">
+        <v>450</v>
+      </c>
+      <c r="D50" t="s">
         <v>451</v>
       </c>
-      <c r="D50" t="s">
-        <v>452</v>
-      </c>
       <c r="E50" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F50" t="s">
+        <v>960</v>
+      </c>
+      <c r="G50" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H50" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C51" t="s">
+        <v>452</v>
+      </c>
+      <c r="D51" t="s">
         <v>453</v>
       </c>
-      <c r="D51" t="s">
-        <v>454</v>
-      </c>
       <c r="E51" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F51" t="s">
+        <v>961</v>
+      </c>
+      <c r="G51" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H51" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C52" t="s">
+        <v>454</v>
+      </c>
+      <c r="D52" t="s">
         <v>455</v>
       </c>
-      <c r="D52" t="s">
-        <v>456</v>
-      </c>
       <c r="E52" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F52" t="s">
+        <v>962</v>
+      </c>
+      <c r="G52" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H52" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C53" t="s">
+        <v>456</v>
+      </c>
+      <c r="D53" t="s">
         <v>457</v>
       </c>
-      <c r="D53" t="s">
-        <v>458</v>
-      </c>
       <c r="E53" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F53" t="s">
+        <v>963</v>
+      </c>
+      <c r="G53" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H53" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C54" t="s">
+        <v>458</v>
+      </c>
+      <c r="D54" t="s">
         <v>459</v>
       </c>
-      <c r="D54" t="s">
-        <v>460</v>
-      </c>
       <c r="E54" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F54" t="s">
+        <v>964</v>
+      </c>
+      <c r="G54" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H54" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C55" t="s">
+        <v>460</v>
+      </c>
+      <c r="D55" t="s">
         <v>461</v>
       </c>
-      <c r="D55" t="s">
-        <v>462</v>
-      </c>
       <c r="E55" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F55" t="s">
+        <v>965</v>
+      </c>
+      <c r="G55" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H55" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C56" t="s">
+        <v>462</v>
+      </c>
+      <c r="D56" t="s">
         <v>463</v>
       </c>
-      <c r="D56" t="s">
-        <v>464</v>
-      </c>
       <c r="E56" t="s">
-        <v>967</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F56" t="s">
+        <v>966</v>
+      </c>
+      <c r="G56" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H56" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C57" t="s">
+        <v>464</v>
+      </c>
+      <c r="D57" t="s">
         <v>465</v>
       </c>
-      <c r="D57" t="s">
-        <v>466</v>
-      </c>
       <c r="E57" t="s">
-        <v>968</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F57" t="s">
+        <v>967</v>
+      </c>
+      <c r="G57" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H57" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C58" t="s">
+        <v>466</v>
+      </c>
+      <c r="D58" t="s">
         <v>467</v>
       </c>
-      <c r="D58" t="s">
-        <v>468</v>
-      </c>
       <c r="E58" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F58" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G58" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H58" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C59" t="s">
+        <v>468</v>
+      </c>
+      <c r="D59" t="s">
         <v>469</v>
       </c>
-      <c r="D59" t="s">
-        <v>470</v>
-      </c>
       <c r="E59" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F59" t="s">
+        <v>968</v>
+      </c>
+      <c r="G59" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H59" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C60" t="s">
+        <v>470</v>
+      </c>
+      <c r="D60" t="s">
         <v>471</v>
       </c>
-      <c r="D60" t="s">
-        <v>472</v>
-      </c>
       <c r="E60" t="s">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F60" t="s">
+        <v>969</v>
+      </c>
+      <c r="G60" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H60" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C61" t="s">
+        <v>472</v>
+      </c>
+      <c r="D61" t="s">
         <v>473</v>
       </c>
-      <c r="D61" t="s">
-        <v>474</v>
-      </c>
       <c r="E61" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F61" t="s">
+        <v>970</v>
+      </c>
+      <c r="G61" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H61" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C62" t="s">
+        <v>474</v>
+      </c>
+      <c r="D62" t="s">
         <v>475</v>
       </c>
-      <c r="D62" t="s">
-        <v>476</v>
-      </c>
       <c r="E62" t="s">
-        <v>973</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F62" t="s">
+        <v>971</v>
+      </c>
+      <c r="G62" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H62" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C63" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D63" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E63" t="s">
-        <v>974</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F63" t="s">
+        <v>972</v>
+      </c>
+      <c r="G63" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H63" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C64" t="s">
+        <v>478</v>
+      </c>
+      <c r="D64" t="s">
         <v>479</v>
       </c>
-      <c r="D64" t="s">
-        <v>480</v>
-      </c>
       <c r="E64" t="s">
-        <v>975</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F64" t="s">
+        <v>973</v>
+      </c>
+      <c r="G64" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H64" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C65" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D65" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E65" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F65" t="s">
+        <v>974</v>
+      </c>
+      <c r="G65" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H65" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C66" t="s">
+        <v>482</v>
+      </c>
+      <c r="D66" t="s">
         <v>483</v>
       </c>
-      <c r="D66" t="s">
-        <v>484</v>
-      </c>
       <c r="E66" t="s">
-        <v>977</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F66" t="s">
+        <v>975</v>
+      </c>
+      <c r="G66" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H66" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B67" t="s">
+        <v>485</v>
+      </c>
+      <c r="C67" t="s">
+        <v>484</v>
+      </c>
+      <c r="D67" t="s">
         <v>486</v>
       </c>
-      <c r="C67" t="s">
-        <v>485</v>
-      </c>
-      <c r="D67" t="s">
-        <v>487</v>
-      </c>
       <c r="E67" t="s">
-        <v>978</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F67" t="s">
+        <v>976</v>
+      </c>
+      <c r="G67" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H67" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C68" t="s">
+        <v>487</v>
+      </c>
+      <c r="D68" t="s">
         <v>488</v>
       </c>
-      <c r="D68" t="s">
-        <v>489</v>
-      </c>
       <c r="E68" t="s">
-        <v>979</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F68" t="s">
+        <v>977</v>
+      </c>
+      <c r="G68" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H68" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C69" t="s">
+        <v>489</v>
+      </c>
+      <c r="D69" t="s">
         <v>490</v>
       </c>
-      <c r="D69" t="s">
-        <v>491</v>
-      </c>
       <c r="E69" t="s">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F69" t="s">
+        <v>978</v>
+      </c>
+      <c r="G69" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H69" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B70" t="s">
+        <v>491</v>
+      </c>
+      <c r="C70" t="s">
         <v>492</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
         <v>493</v>
       </c>
-      <c r="D70" t="s">
-        <v>494</v>
-      </c>
       <c r="E70" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F70" t="s">
+        <v>979</v>
+      </c>
+      <c r="G70" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H70" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>74</v>
       </c>
       <c r="B71" t="s">
+        <v>494</v>
+      </c>
+      <c r="C71" t="s">
         <v>495</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D71" t="s">
         <v>496</v>
       </c>
-      <c r="D71" t="s">
-        <v>497</v>
-      </c>
       <c r="E71" t="s">
-        <v>982</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F71" t="s">
+        <v>980</v>
+      </c>
+      <c r="G71" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H71" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C72" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D72" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E72" t="s">
-        <v>983</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F72" t="s">
+        <v>981</v>
+      </c>
+      <c r="G72" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H72" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B73" t="s">
+        <v>499</v>
+      </c>
+      <c r="C73" t="s">
         <v>500</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
         <v>501</v>
       </c>
-      <c r="D73" t="s">
-        <v>502</v>
-      </c>
       <c r="E73" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F73" t="s">
+        <v>982</v>
+      </c>
+      <c r="G73" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H73" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>77</v>
       </c>
       <c r="B74" t="s">
+        <v>502</v>
+      </c>
+      <c r="C74" t="s">
         <v>503</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D74" t="s">
         <v>504</v>
       </c>
-      <c r="D74" t="s">
-        <v>505</v>
-      </c>
       <c r="E74" t="s">
-        <v>985</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F74" t="s">
+        <v>983</v>
+      </c>
+      <c r="G74" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H74" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B75" t="s">
+        <v>902</v>
+      </c>
+      <c r="C75" t="s">
         <v>903</v>
       </c>
-      <c r="C75" t="s">
+      <c r="D75" t="s">
         <v>904</v>
       </c>
-      <c r="D75" t="s">
-        <v>905</v>
-      </c>
       <c r="E75" t="s">
-        <v>986</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F75" t="s">
+        <v>984</v>
+      </c>
+      <c r="G75" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H75" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>79</v>
       </c>
       <c r="B76" t="s">
+        <v>505</v>
+      </c>
+      <c r="C76" t="s">
         <v>506</v>
       </c>
-      <c r="C76" t="s">
+      <c r="D76" t="s">
         <v>507</v>
       </c>
-      <c r="D76" t="s">
-        <v>508</v>
-      </c>
       <c r="E76" t="s">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F76" t="s">
+        <v>985</v>
+      </c>
+      <c r="G76" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H76" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C77" t="s">
+        <v>508</v>
+      </c>
+      <c r="D77" t="s">
         <v>509</v>
       </c>
-      <c r="D77" t="s">
-        <v>510</v>
-      </c>
       <c r="E77" t="s">
-        <v>988</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F77" t="s">
+        <v>986</v>
+      </c>
+      <c r="G77" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H77" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B78" t="s">
+        <v>510</v>
+      </c>
+      <c r="C78" t="s">
         <v>511</v>
       </c>
-      <c r="C78" t="s">
+      <c r="D78" t="s">
         <v>512</v>
       </c>
-      <c r="D78" t="s">
-        <v>513</v>
-      </c>
       <c r="E78" t="s">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F78" t="s">
+        <v>987</v>
+      </c>
+      <c r="G78" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H78" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B79" t="s">
+        <v>513</v>
+      </c>
+      <c r="C79" t="s">
         <v>514</v>
       </c>
-      <c r="C79" t="s">
+      <c r="D79" t="s">
         <v>515</v>
       </c>
-      <c r="D79" t="s">
-        <v>516</v>
-      </c>
       <c r="E79" t="s">
-        <v>990</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F79" t="s">
+        <v>988</v>
+      </c>
+      <c r="G79" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H79" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>83</v>
       </c>
       <c r="B80" t="s">
+        <v>516</v>
+      </c>
+      <c r="C80" t="s">
         <v>517</v>
       </c>
-      <c r="C80" t="s">
+      <c r="D80" t="s">
         <v>518</v>
       </c>
-      <c r="D80" t="s">
-        <v>519</v>
-      </c>
       <c r="E80" t="s">
-        <v>991</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F80" t="s">
+        <v>989</v>
+      </c>
+      <c r="G80" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H80" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B81" t="s">
+        <v>519</v>
+      </c>
+      <c r="C81" t="s">
         <v>520</v>
       </c>
-      <c r="C81" t="s">
+      <c r="D81" t="s">
         <v>521</v>
       </c>
-      <c r="D81" t="s">
-        <v>522</v>
-      </c>
       <c r="E81" t="s">
-        <v>992</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F81" t="s">
+        <v>990</v>
+      </c>
+      <c r="G81" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H81" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>85</v>
       </c>
       <c r="B82" t="s">
+        <v>522</v>
+      </c>
+      <c r="C82" t="s">
         <v>523</v>
       </c>
-      <c r="C82" t="s">
+      <c r="D82" t="s">
         <v>524</v>
       </c>
-      <c r="D82" t="s">
-        <v>525</v>
-      </c>
       <c r="E82" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F82" t="s">
+        <v>991</v>
+      </c>
+      <c r="G82" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H82" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C83" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="D83" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E83" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F83" t="s">
+        <v>992</v>
+      </c>
+      <c r="G83" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H83" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C84" t="s">
+        <v>529</v>
+      </c>
+      <c r="D84" t="s">
         <v>530</v>
       </c>
-      <c r="D84" t="s">
-        <v>531</v>
-      </c>
       <c r="E84" t="s">
-        <v>995</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F84" t="s">
+        <v>993</v>
+      </c>
+      <c r="G84" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H84" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C85" t="s">
+        <v>531</v>
+      </c>
+      <c r="D85" t="s">
         <v>532</v>
       </c>
-      <c r="D85" t="s">
-        <v>533</v>
-      </c>
       <c r="E85" t="s">
-        <v>996</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F85" t="s">
+        <v>994</v>
+      </c>
+      <c r="G85" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H85" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C86" t="s">
+        <v>533</v>
+      </c>
+      <c r="D86" t="s">
         <v>534</v>
       </c>
-      <c r="D86" t="s">
-        <v>535</v>
-      </c>
       <c r="E86" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F86" t="s">
+        <v>995</v>
+      </c>
+      <c r="G86" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H86" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>90</v>
       </c>
       <c r="B87" t="s">
+        <v>537</v>
+      </c>
+      <c r="C87" t="s">
+        <v>536</v>
+      </c>
+      <c r="D87" t="s">
         <v>538</v>
       </c>
-      <c r="C87" t="s">
-        <v>537</v>
-      </c>
-      <c r="D87" t="s">
-        <v>539</v>
-      </c>
       <c r="E87" t="s">
-        <v>998</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F87" t="s">
+        <v>996</v>
+      </c>
+      <c r="G87" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H87" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C88" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D88" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E88" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F88" t="s">
+        <v>997</v>
+      </c>
+      <c r="G88" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H88" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B89" t="s">
+        <v>542</v>
+      </c>
+      <c r="C89" t="s">
+        <v>541</v>
+      </c>
+      <c r="D89" t="s">
         <v>543</v>
       </c>
-      <c r="C89" t="s">
-        <v>542</v>
-      </c>
-      <c r="D89" t="s">
-        <v>544</v>
-      </c>
       <c r="E89" t="s">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F89" t="s">
+        <v>998</v>
+      </c>
+      <c r="G89" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H89" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>93</v>
       </c>
       <c r="B90" t="s">
+        <v>544</v>
+      </c>
+      <c r="C90" t="s">
         <v>545</v>
       </c>
-      <c r="C90" t="s">
+      <c r="D90" t="s">
         <v>546</v>
       </c>
-      <c r="D90" t="s">
-        <v>547</v>
-      </c>
       <c r="E90" t="s">
-        <v>1001</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F90" t="s">
+        <v>999</v>
+      </c>
+      <c r="G90" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H90" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C91" t="s">
+        <v>547</v>
+      </c>
+      <c r="D91" t="s">
         <v>548</v>
       </c>
-      <c r="D91" t="s">
-        <v>549</v>
-      </c>
       <c r="E91" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F91" t="s">
+        <v>1000</v>
+      </c>
+      <c r="G91" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H91" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C92" t="s">
+        <v>549</v>
+      </c>
+      <c r="D92" t="s">
         <v>550</v>
       </c>
-      <c r="D92" t="s">
-        <v>551</v>
-      </c>
       <c r="E92" t="s">
-        <v>1003</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F92" t="s">
+        <v>1001</v>
+      </c>
+      <c r="G92" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H92" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C93" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="D93" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E93" t="s">
-        <v>1004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F93" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G93" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H93" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C94" t="s">
+        <v>553</v>
+      </c>
+      <c r="D94" t="s">
         <v>554</v>
       </c>
-      <c r="D94" t="s">
-        <v>555</v>
-      </c>
       <c r="E94" t="s">
-        <v>1005</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F94" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G94" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H94" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C95" t="s">
+        <v>555</v>
+      </c>
+      <c r="D95" t="s">
         <v>556</v>
       </c>
-      <c r="D95" t="s">
-        <v>557</v>
-      </c>
       <c r="E95" t="s">
-        <v>1006</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F95" t="s">
+        <v>1004</v>
+      </c>
+      <c r="G95" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H95" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C96" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D96" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E96" t="s">
-        <v>1007</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F96" t="s">
+        <v>1005</v>
+      </c>
+      <c r="G96" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H96" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C97" t="s">
+        <v>559</v>
+      </c>
+      <c r="D97" t="s">
         <v>560</v>
       </c>
-      <c r="D97" t="s">
-        <v>561</v>
-      </c>
       <c r="E97" t="s">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F97" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G97" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H97" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C98" t="s">
+        <v>561</v>
+      </c>
+      <c r="D98" t="s">
         <v>562</v>
       </c>
-      <c r="D98" t="s">
-        <v>563</v>
-      </c>
       <c r="E98" t="s">
-        <v>1009</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F98" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G98" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H98" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B99" t="s">
+        <v>563</v>
+      </c>
+      <c r="C99" t="s">
         <v>564</v>
       </c>
-      <c r="C99" t="s">
+      <c r="D99" t="s">
         <v>565</v>
       </c>
-      <c r="D99" t="s">
-        <v>566</v>
-      </c>
       <c r="E99" t="s">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F99" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G99" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H99" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C100" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="D100" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E100" t="s">
-        <v>1011</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F100" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G100" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H100" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>104</v>
       </c>
       <c r="B101" t="s">
+        <v>568</v>
+      </c>
+      <c r="C101" t="s">
         <v>569</v>
       </c>
-      <c r="C101" t="s">
+      <c r="D101" t="s">
         <v>570</v>
       </c>
-      <c r="D101" t="s">
-        <v>571</v>
-      </c>
       <c r="E101" t="s">
-        <v>1012</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F101" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G101" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H101" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B102" t="s">
+        <v>571</v>
+      </c>
+      <c r="C102" t="s">
+        <v>573</v>
+      </c>
+      <c r="D102" t="s">
         <v>572</v>
       </c>
-      <c r="C102" t="s">
-        <v>574</v>
-      </c>
-      <c r="D102" t="s">
-        <v>573</v>
-      </c>
       <c r="E102" t="s">
-        <v>1013</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F102" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G102" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H102" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>106</v>
       </c>
       <c r="B103" t="s">
+        <v>574</v>
+      </c>
+      <c r="C103" t="s">
         <v>575</v>
       </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
         <v>576</v>
       </c>
-      <c r="D103" t="s">
-        <v>577</v>
-      </c>
       <c r="E103" t="s">
-        <v>1014</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F103" t="s">
+        <v>1012</v>
+      </c>
+      <c r="G103" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H103" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>107</v>
       </c>
       <c r="B104" t="s">
+        <v>578</v>
+      </c>
+      <c r="C104" t="s">
+        <v>577</v>
+      </c>
+      <c r="D104" t="s">
         <v>579</v>
       </c>
-      <c r="C104" t="s">
-        <v>578</v>
-      </c>
-      <c r="D104" t="s">
-        <v>580</v>
-      </c>
       <c r="E104" t="s">
-        <v>1015</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F104" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G104" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H104" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C105" t="s">
+        <v>580</v>
+      </c>
+      <c r="D105" t="s">
         <v>581</v>
       </c>
-      <c r="D105" t="s">
-        <v>582</v>
-      </c>
       <c r="E105" t="s">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F105" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G105" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H105" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C106" t="s">
+        <v>582</v>
+      </c>
+      <c r="D106" t="s">
         <v>583</v>
       </c>
-      <c r="D106" t="s">
-        <v>584</v>
-      </c>
       <c r="E106" t="s">
-        <v>1017</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F106" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G106" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H106" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>110</v>
       </c>
       <c r="B107" t="s">
+        <v>584</v>
+      </c>
+      <c r="C107" t="s">
         <v>585</v>
       </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
         <v>586</v>
       </c>
-      <c r="D107" t="s">
-        <v>587</v>
-      </c>
       <c r="E107" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F107" t="s">
+        <v>1016</v>
+      </c>
+      <c r="G107" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H107" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C108" t="s">
+        <v>587</v>
+      </c>
+      <c r="D108" t="s">
         <v>588</v>
       </c>
-      <c r="D108" t="s">
-        <v>589</v>
-      </c>
       <c r="E108" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F108" t="s">
+        <v>1017</v>
+      </c>
+      <c r="G108" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H108" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C109" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="D109" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="E109" t="s">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F109" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G109" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H109" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>113</v>
       </c>
       <c r="B110" t="s">
+        <v>592</v>
+      </c>
+      <c r="C110" t="s">
         <v>593</v>
       </c>
-      <c r="C110" t="s">
+      <c r="D110" t="s">
         <v>594</v>
       </c>
-      <c r="D110" t="s">
-        <v>595</v>
-      </c>
       <c r="E110" t="s">
-        <v>1021</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F110" t="s">
+        <v>1019</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H110" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C111" t="s">
+        <v>595</v>
+      </c>
+      <c r="D111" t="s">
         <v>596</v>
       </c>
-      <c r="D111" t="s">
-        <v>597</v>
-      </c>
       <c r="E111" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F111" t="s">
+        <v>1086</v>
+      </c>
+      <c r="G111" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H111" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B112" t="s">
+        <v>598</v>
+      </c>
+      <c r="C112" t="s">
+        <v>597</v>
+      </c>
+      <c r="D112" t="s">
         <v>599</v>
       </c>
-      <c r="C112" t="s">
-        <v>598</v>
-      </c>
-      <c r="D112" t="s">
-        <v>600</v>
-      </c>
       <c r="E112" t="s">
-        <v>1022</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F112" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G112" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H112" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>116</v>
       </c>
       <c r="B113" t="s">
+        <v>600</v>
+      </c>
+      <c r="C113" t="s">
         <v>601</v>
       </c>
-      <c r="C113" t="s">
+      <c r="D113" t="s">
         <v>602</v>
       </c>
-      <c r="D113" t="s">
-        <v>603</v>
-      </c>
       <c r="E113" t="s">
-        <v>1023</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F113" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G113" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H113" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C114" t="s">
+        <v>603</v>
+      </c>
+      <c r="D114" t="s">
         <v>604</v>
       </c>
-      <c r="D114" t="s">
-        <v>605</v>
-      </c>
       <c r="E114" t="s">
-        <v>1024</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F114" t="s">
+        <v>1022</v>
+      </c>
+      <c r="G114" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H114" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C115" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D115" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="E115" t="s">
-        <v>1025</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F115" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G115" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H115" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C116" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D116" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="E116" t="s">
-        <v>1026</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F116" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G116" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H116" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C117" t="s">
+        <v>615</v>
+      </c>
+      <c r="D117" t="s">
         <v>616</v>
       </c>
-      <c r="D117" t="s">
-        <v>617</v>
-      </c>
       <c r="E117" t="s">
-        <v>1027</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F117" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G117" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H117" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C118" t="s">
+        <v>617</v>
+      </c>
+      <c r="D118" t="s">
         <v>618</v>
       </c>
-      <c r="D118" t="s">
-        <v>619</v>
-      </c>
       <c r="E118" t="s">
-        <v>1028</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F118" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G118" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H118" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C119" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D119" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="E119" t="s">
-        <v>1029</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F119" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G119" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H119" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C120" t="s">
+        <v>621</v>
+      </c>
+      <c r="D120" t="s">
         <v>622</v>
       </c>
-      <c r="D120" t="s">
-        <v>623</v>
-      </c>
       <c r="E120" t="s">
-        <v>1030</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F120" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G120" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H120" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C121" t="s">
+        <v>623</v>
+      </c>
+      <c r="D121" t="s">
         <v>624</v>
       </c>
-      <c r="D121" t="s">
-        <v>625</v>
-      </c>
       <c r="E121" t="s">
-        <v>1031</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F121" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G121" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H121" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C122" t="s">
+        <v>625</v>
+      </c>
+      <c r="D122" t="s">
         <v>626</v>
       </c>
-      <c r="D122" t="s">
-        <v>627</v>
-      </c>
       <c r="E122" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F122" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G122" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H122" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C123" t="s">
+        <v>627</v>
+      </c>
+      <c r="D123" t="s">
         <v>628</v>
       </c>
-      <c r="D123" t="s">
-        <v>629</v>
-      </c>
       <c r="E123" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F123" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G123" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H123" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
         <v>127</v>
       </c>
       <c r="B124" t="s">
+        <v>906</v>
+      </c>
+      <c r="C124" t="s">
+        <v>905</v>
+      </c>
+      <c r="D124" t="s">
         <v>907</v>
       </c>
-      <c r="C124" t="s">
-        <v>906</v>
-      </c>
-      <c r="D124" t="s">
-        <v>908</v>
-      </c>
       <c r="E124" t="s">
-        <v>1034</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F124" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G124" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H124" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C125" t="s">
+        <v>629</v>
+      </c>
+      <c r="D125" t="s">
         <v>630</v>
       </c>
-      <c r="D125" t="s">
-        <v>631</v>
-      </c>
       <c r="E125" t="s">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F125" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G125" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H125" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="C126" t="s">
+        <v>631</v>
+      </c>
+      <c r="D126" t="s">
         <v>632</v>
       </c>
-      <c r="D126" t="s">
-        <v>633</v>
-      </c>
       <c r="E126" t="s">
-        <v>1036</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F126" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G126" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H126" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B127" t="s">
+        <v>634</v>
+      </c>
+      <c r="C127" t="s">
+        <v>633</v>
+      </c>
+      <c r="D127" t="s">
         <v>635</v>
       </c>
-      <c r="C127" t="s">
-        <v>634</v>
-      </c>
-      <c r="D127" t="s">
-        <v>636</v>
-      </c>
       <c r="E127" t="s">
-        <v>1037</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F127" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G127" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H127" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C128" t="s">
+        <v>636</v>
+      </c>
+      <c r="D128" t="s">
         <v>637</v>
       </c>
-      <c r="D128" t="s">
-        <v>638</v>
-      </c>
       <c r="E128" t="s">
-        <v>1038</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F128" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G128" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H128" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>132</v>
       </c>
       <c r="B129" t="s">
+        <v>639</v>
+      </c>
+      <c r="C129" t="s">
+        <v>638</v>
+      </c>
+      <c r="D129" t="s">
         <v>640</v>
       </c>
-      <c r="C129" t="s">
-        <v>639</v>
-      </c>
-      <c r="D129" t="s">
-        <v>641</v>
-      </c>
       <c r="E129" t="s">
-        <v>1039</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F129" t="s">
+        <v>1037</v>
+      </c>
+      <c r="G129" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H129" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>133</v>
       </c>
       <c r="B130" t="s">
+        <v>641</v>
+      </c>
+      <c r="C130" t="s">
         <v>642</v>
       </c>
-      <c r="C130" t="s">
+      <c r="D130" t="s">
         <v>643</v>
       </c>
-      <c r="D130" t="s">
-        <v>644</v>
-      </c>
       <c r="E130" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F130" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G130" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H130" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>134</v>
       </c>
       <c r="B131" t="s">
+        <v>644</v>
+      </c>
+      <c r="C131" t="s">
         <v>645</v>
       </c>
-      <c r="C131" t="s">
+      <c r="D131" t="s">
         <v>646</v>
       </c>
-      <c r="D131" t="s">
-        <v>647</v>
-      </c>
       <c r="E131" t="s">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F131" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G131" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H131" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C132" t="s">
+        <v>647</v>
+      </c>
+      <c r="D132" t="s">
         <v>648</v>
       </c>
-      <c r="D132" t="s">
-        <v>649</v>
-      </c>
       <c r="E132" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F132" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G132" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H132" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>136</v>
       </c>
       <c r="B133" t="s">
+        <v>650</v>
+      </c>
+      <c r="C133" t="s">
+        <v>649</v>
+      </c>
+      <c r="D133" t="s">
         <v>651</v>
       </c>
-      <c r="C133" t="s">
-        <v>650</v>
-      </c>
-      <c r="D133" t="s">
-        <v>652</v>
-      </c>
       <c r="E133" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F133" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G133" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H133" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>230</v>
       </c>
       <c r="B134" t="s">
+        <v>652</v>
+      </c>
+      <c r="C134" t="s">
         <v>653</v>
       </c>
-      <c r="C134" t="s">
+      <c r="D134" t="s">
         <v>654</v>
       </c>
-      <c r="D134" t="s">
-        <v>655</v>
-      </c>
       <c r="E134" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F134" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G134" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H134" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>229</v>
       </c>
       <c r="B135" t="s">
+        <v>655</v>
+      </c>
+      <c r="C135" t="s">
         <v>656</v>
       </c>
-      <c r="C135" t="s">
+      <c r="D135" t="s">
         <v>657</v>
       </c>
-      <c r="D135" t="s">
-        <v>658</v>
-      </c>
       <c r="E135" t="s">
-        <v>1043</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F135" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G135" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H135" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>228</v>
       </c>
       <c r="B136" t="s">
+        <v>658</v>
+      </c>
+      <c r="C136" t="s">
         <v>659</v>
       </c>
-      <c r="C136" t="s">
+      <c r="D136" t="s">
         <v>660</v>
       </c>
-      <c r="D136" t="s">
-        <v>661</v>
-      </c>
       <c r="E136" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F136" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G136" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H136" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>227</v>
       </c>
       <c r="B137" t="s">
+        <v>661</v>
+      </c>
+      <c r="C137" t="s">
         <v>662</v>
       </c>
-      <c r="C137" t="s">
+      <c r="D137" t="s">
         <v>663</v>
       </c>
-      <c r="D137" t="s">
-        <v>664</v>
-      </c>
       <c r="E137" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F137" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G137" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H137" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>226</v>
       </c>
       <c r="B138" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C138" t="s">
+        <v>664</v>
+      </c>
+      <c r="D138" t="s">
         <v>665</v>
       </c>
-      <c r="D138" t="s">
-        <v>666</v>
-      </c>
       <c r="E138" t="s">
-        <v>1046</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F138" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G138" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H138" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>225</v>
       </c>
       <c r="B139" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C139" t="s">
+        <v>666</v>
+      </c>
+      <c r="D139" t="s">
         <v>667</v>
       </c>
-      <c r="D139" t="s">
-        <v>668</v>
-      </c>
       <c r="E139" t="s">
-        <v>1047</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F139" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G139" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H139" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>223</v>
       </c>
       <c r="B140" t="s">
+        <v>669</v>
+      </c>
+      <c r="C140" t="s">
+        <v>668</v>
+      </c>
+      <c r="D140" t="s">
         <v>670</v>
       </c>
-      <c r="C140" t="s">
-        <v>669</v>
-      </c>
-      <c r="D140" t="s">
-        <v>671</v>
-      </c>
       <c r="E140" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F140" t="s">
+        <v>933</v>
+      </c>
+      <c r="G140" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H140" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>222</v>
       </c>
       <c r="B141" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C141" t="s">
+        <v>671</v>
+      </c>
+      <c r="D141" t="s">
         <v>672</v>
       </c>
-      <c r="D141" t="s">
-        <v>673</v>
-      </c>
       <c r="E141" t="s">
-        <v>1048</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F141" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G141" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H141" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>224</v>
       </c>
       <c r="B142" t="s">
+        <v>673</v>
+      </c>
+      <c r="C142" t="s">
         <v>674</v>
       </c>
-      <c r="C142" t="s">
+      <c r="D142" t="s">
         <v>675</v>
       </c>
-      <c r="D142" t="s">
-        <v>676</v>
-      </c>
       <c r="E142" t="s">
-        <v>1049</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F142" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G142" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H142" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>221</v>
       </c>
       <c r="B143" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C143" t="s">
+        <v>676</v>
+      </c>
+      <c r="D143" t="s">
         <v>677</v>
       </c>
-      <c r="D143" t="s">
-        <v>678</v>
-      </c>
       <c r="E143" t="s">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F143" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G143" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H143" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>220</v>
       </c>
       <c r="B144" t="s">
+        <v>678</v>
+      </c>
+      <c r="C144" t="s">
         <v>679</v>
       </c>
-      <c r="C144" t="s">
+      <c r="D144" t="s">
         <v>680</v>
       </c>
-      <c r="D144" t="s">
-        <v>681</v>
-      </c>
       <c r="E144" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F144" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G144" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H144" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B145" t="s">
+        <v>681</v>
+      </c>
+      <c r="C145" t="s">
         <v>682</v>
       </c>
-      <c r="C145" t="s">
+      <c r="D145" t="s">
         <v>683</v>
       </c>
-      <c r="D145" t="s">
-        <v>684</v>
-      </c>
       <c r="E145" t="s">
-        <v>1051</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F145" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G145" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H145" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B146" t="s">
+        <v>684</v>
+      </c>
+      <c r="C146" t="s">
         <v>685</v>
       </c>
-      <c r="C146" t="s">
+      <c r="D146" t="s">
         <v>686</v>
       </c>
-      <c r="D146" t="s">
-        <v>687</v>
-      </c>
       <c r="E146" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F146" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G146" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H146" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B147" t="s">
+        <v>687</v>
+      </c>
+      <c r="C147" t="s">
+        <v>689</v>
+      </c>
+      <c r="D147" t="s">
         <v>688</v>
       </c>
-      <c r="C147" t="s">
-        <v>690</v>
-      </c>
-      <c r="D147" t="s">
-        <v>689</v>
-      </c>
       <c r="E147" t="s">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F147" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G147" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H147" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B148" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C148" t="s">
+        <v>690</v>
+      </c>
+      <c r="D148" t="s">
         <v>691</v>
       </c>
-      <c r="D148" t="s">
-        <v>692</v>
-      </c>
       <c r="E148" t="s">
-        <v>1054</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F148" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G148" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H148" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B149" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C149" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D149" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E149" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F149" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G149" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H149" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B150" t="s">
+        <v>694</v>
+      </c>
+      <c r="C150" t="s">
         <v>695</v>
       </c>
-      <c r="C150" t="s">
+      <c r="D150" t="s">
         <v>696</v>
       </c>
-      <c r="D150" t="s">
-        <v>697</v>
-      </c>
       <c r="E150" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F150" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G150" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H150" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>213</v>
       </c>
       <c r="B151" t="s">
+        <v>697</v>
+      </c>
+      <c r="C151" t="s">
         <v>698</v>
       </c>
-      <c r="C151" t="s">
+      <c r="D151" t="s">
         <v>699</v>
       </c>
-      <c r="D151" t="s">
-        <v>700</v>
-      </c>
       <c r="E151" t="s">
-        <v>1055</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F151" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G151" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H151" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B152" t="s">
+        <v>700</v>
+      </c>
+      <c r="C152" t="s">
         <v>701</v>
       </c>
-      <c r="C152" t="s">
+      <c r="D152" t="s">
         <v>702</v>
       </c>
-      <c r="D152" t="s">
-        <v>703</v>
-      </c>
       <c r="E152" t="s">
-        <v>1056</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F152" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G152" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H152" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B153" t="s">
+        <v>703</v>
+      </c>
+      <c r="C153" t="s">
         <v>704</v>
       </c>
-      <c r="C153" t="s">
+      <c r="D153" t="s">
         <v>705</v>
       </c>
-      <c r="D153" t="s">
-        <v>706</v>
-      </c>
       <c r="E153" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F153" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G153" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H153" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B154" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C154" t="s">
+        <v>706</v>
+      </c>
+      <c r="D154" t="s">
         <v>707</v>
       </c>
-      <c r="D154" t="s">
-        <v>708</v>
-      </c>
       <c r="E154" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F154" t="s">
+        <v>1093</v>
+      </c>
+      <c r="G154" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H154" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>209</v>
       </c>
       <c r="B155" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C155" t="s">
+        <v>708</v>
+      </c>
+      <c r="D155" t="s">
         <v>709</v>
       </c>
-      <c r="D155" t="s">
-        <v>710</v>
-      </c>
       <c r="E155" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F155" t="s">
+        <v>1094</v>
+      </c>
+      <c r="G155" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H155" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B156" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C156" t="s">
+        <v>710</v>
+      </c>
+      <c r="D156" t="s">
         <v>711</v>
       </c>
-      <c r="D156" t="s">
-        <v>712</v>
-      </c>
       <c r="E156" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F156" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G156" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H156" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>207</v>
       </c>
       <c r="B157" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C157" t="s">
+        <v>712</v>
+      </c>
+      <c r="D157" t="s">
         <v>713</v>
       </c>
-      <c r="D157" t="s">
-        <v>714</v>
-      </c>
       <c r="E157" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F157" t="s">
+        <v>1096</v>
+      </c>
+      <c r="G157" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H157" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>206</v>
       </c>
       <c r="B158" t="s">
+        <v>715</v>
+      </c>
+      <c r="C158" t="s">
+        <v>714</v>
+      </c>
+      <c r="D158" t="s">
         <v>716</v>
       </c>
-      <c r="C158" t="s">
-        <v>715</v>
-      </c>
-      <c r="D158" t="s">
-        <v>717</v>
-      </c>
       <c r="E158" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F158" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G158" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H158" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>205</v>
       </c>
       <c r="B159" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C159" t="s">
+        <v>717</v>
+      </c>
+      <c r="D159" t="s">
         <v>718</v>
       </c>
-      <c r="D159" t="s">
-        <v>719</v>
-      </c>
       <c r="E159" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F159" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G159" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H159" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>204</v>
       </c>
       <c r="B160" t="s">
+        <v>719</v>
+      </c>
+      <c r="C160" t="s">
+        <v>721</v>
+      </c>
+      <c r="D160" t="s">
         <v>720</v>
       </c>
-      <c r="C160" t="s">
-        <v>722</v>
-      </c>
-      <c r="D160" t="s">
-        <v>721</v>
-      </c>
       <c r="E160" t="s">
-        <v>1057</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F160" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G160" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H160" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>203</v>
       </c>
       <c r="B161" t="s">
+        <v>722</v>
+      </c>
+      <c r="C161" t="s">
         <v>723</v>
       </c>
-      <c r="C161" t="s">
+      <c r="D161" t="s">
         <v>724</v>
       </c>
-      <c r="D161" t="s">
-        <v>725</v>
-      </c>
       <c r="E161" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F161" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G161" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H161" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>201</v>
       </c>
       <c r="B162" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C162" t="s">
+        <v>725</v>
+      </c>
+      <c r="D162" t="s">
         <v>726</v>
       </c>
-      <c r="D162" t="s">
-        <v>727</v>
-      </c>
       <c r="E162" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F162" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G162" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H162" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>202</v>
       </c>
       <c r="B163" t="s">
+        <v>727</v>
+      </c>
+      <c r="C163" t="s">
         <v>728</v>
       </c>
-      <c r="C163" t="s">
+      <c r="D163" t="s">
         <v>729</v>
       </c>
-      <c r="D163" t="s">
-        <v>730</v>
-      </c>
       <c r="E163" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F163" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G163" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H163" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>200</v>
       </c>
       <c r="B164" t="s">
+        <v>730</v>
+      </c>
+      <c r="C164" t="s">
         <v>731</v>
       </c>
-      <c r="C164" t="s">
+      <c r="D164" t="s">
         <v>732</v>
       </c>
-      <c r="D164" t="s">
-        <v>733</v>
-      </c>
       <c r="E164" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F164" t="s">
+        <v>1136</v>
+      </c>
+      <c r="G164" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H164" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>199</v>
       </c>
       <c r="B165" t="s">
+        <v>733</v>
+      </c>
+      <c r="C165" t="s">
         <v>734</v>
       </c>
-      <c r="C165" t="s">
+      <c r="D165" t="s">
         <v>735</v>
       </c>
-      <c r="D165" t="s">
-        <v>736</v>
-      </c>
       <c r="E165" t="s">
-        <v>1059</v>
-      </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F165" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G165" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H165" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>198</v>
       </c>
       <c r="B166" t="s">
+        <v>736</v>
+      </c>
+      <c r="C166" t="s">
         <v>737</v>
       </c>
-      <c r="C166" t="s">
+      <c r="D166" t="s">
         <v>738</v>
       </c>
-      <c r="D166" t="s">
-        <v>739</v>
-      </c>
       <c r="E166" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F166" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G166" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H166" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B167" t="s">
+        <v>739</v>
+      </c>
+      <c r="C167" t="s">
         <v>740</v>
       </c>
-      <c r="C167" t="s">
+      <c r="D167" t="s">
         <v>741</v>
       </c>
-      <c r="D167" t="s">
-        <v>742</v>
-      </c>
       <c r="E167" t="s">
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F167" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G167" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H167" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>197</v>
       </c>
       <c r="B168" t="s">
+        <v>743</v>
+      </c>
+      <c r="C168" t="s">
+        <v>742</v>
+      </c>
+      <c r="D168" t="s">
         <v>744</v>
       </c>
-      <c r="C168" t="s">
-        <v>743</v>
-      </c>
-      <c r="D168" t="s">
-        <v>745</v>
-      </c>
       <c r="E168" t="s">
-        <v>1061</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F168" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G168" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H168" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>196</v>
       </c>
       <c r="B169" t="s">
+        <v>746</v>
+      </c>
+      <c r="C169" t="s">
+        <v>745</v>
+      </c>
+      <c r="D169" t="s">
         <v>747</v>
       </c>
-      <c r="C169" t="s">
-        <v>746</v>
-      </c>
-      <c r="D169" t="s">
-        <v>748</v>
-      </c>
       <c r="E169" t="s">
-        <v>1062</v>
-      </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F169" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G169" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H169" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>195</v>
       </c>
       <c r="B170" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C170" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="D170" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E170" t="s">
-        <v>1063</v>
-      </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F170" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G170" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H170" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>194</v>
       </c>
       <c r="B171" t="s">
+        <v>750</v>
+      </c>
+      <c r="C171" t="s">
         <v>751</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>752</v>
       </c>
-      <c r="D171" t="s">
-        <v>753</v>
-      </c>
       <c r="E171" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F171" t="s">
+        <v>1102</v>
+      </c>
+      <c r="G171" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H171" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>193</v>
       </c>
       <c r="B172" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C172" t="s">
+        <v>753</v>
+      </c>
+      <c r="D172" t="s">
         <v>754</v>
       </c>
-      <c r="D172" t="s">
-        <v>755</v>
-      </c>
       <c r="E172" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F172" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G172" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H172" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>192</v>
       </c>
       <c r="B173" t="s">
+        <v>755</v>
+      </c>
+      <c r="C173" t="s">
         <v>756</v>
       </c>
-      <c r="C173" t="s">
+      <c r="D173" t="s">
         <v>757</v>
       </c>
-      <c r="D173" t="s">
-        <v>758</v>
-      </c>
       <c r="E173" t="s">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F173" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G173" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H173" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>191</v>
       </c>
       <c r="B174" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C174" t="s">
+        <v>762</v>
+      </c>
+      <c r="D174" t="s">
         <v>763</v>
       </c>
-      <c r="D174" t="s">
-        <v>764</v>
-      </c>
       <c r="E174" t="s">
-        <v>1066</v>
-      </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F174" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G174" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H174" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>190</v>
       </c>
       <c r="B175" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C175" t="s">
+        <v>764</v>
+      </c>
+      <c r="D175" t="s">
         <v>765</v>
       </c>
-      <c r="D175" t="s">
-        <v>766</v>
-      </c>
       <c r="E175" t="s">
-        <v>1067</v>
-      </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F175" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G175" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H175" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>189</v>
       </c>
       <c r="B176" t="s">
+        <v>766</v>
+      </c>
+      <c r="C176" t="s">
+        <v>768</v>
+      </c>
+      <c r="D176" t="s">
         <v>767</v>
       </c>
-      <c r="C176" t="s">
-        <v>769</v>
-      </c>
-      <c r="D176" t="s">
-        <v>768</v>
-      </c>
       <c r="E176" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F176" t="s">
+        <v>939</v>
+      </c>
+      <c r="G176" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H176" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>188</v>
       </c>
       <c r="B177" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C177" t="s">
+        <v>769</v>
+      </c>
+      <c r="D177" t="s">
         <v>770</v>
       </c>
-      <c r="D177" t="s">
-        <v>771</v>
-      </c>
       <c r="E177" t="s">
-        <v>1068</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F177" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G177" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H177" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>187</v>
       </c>
       <c r="B178" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C178" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D178" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="E178" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F178" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G178" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H178" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>186</v>
       </c>
       <c r="B179" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C179" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D179" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E179" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F179" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G179" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H179" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>185</v>
       </c>
       <c r="B180" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C180" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D180" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="E180" t="s">
-        <v>1069</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F180" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G180" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H180" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C181" t="s">
+        <v>777</v>
+      </c>
+      <c r="D181" t="s">
         <v>778</v>
       </c>
-      <c r="D181" t="s">
-        <v>779</v>
-      </c>
       <c r="E181" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F181" t="s">
+        <v>1105</v>
+      </c>
+      <c r="G181" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H181" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" s="1" t="s">
         <v>183</v>
       </c>
       <c r="B182" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C182" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="D182" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="E182" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F182" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G182" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H182" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
       <c r="B183" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C183" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="D183" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="E183" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F183" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G183" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H183" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" s="1" t="s">
         <v>181</v>
       </c>
       <c r="B184" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C184" t="s">
+        <v>783</v>
+      </c>
+      <c r="D184" t="s">
         <v>784</v>
       </c>
-      <c r="D184" t="s">
-        <v>785</v>
-      </c>
       <c r="E184" t="s">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F184" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G184" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H184" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" s="1" t="s">
         <v>180</v>
       </c>
       <c r="B185" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C185" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="D185" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E185" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F185" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G185" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H185" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" s="1" t="s">
         <v>179</v>
       </c>
       <c r="B186" t="s">
+        <v>787</v>
+      </c>
+      <c r="C186" t="s">
         <v>788</v>
       </c>
-      <c r="C186" t="s">
+      <c r="D186" t="s">
         <v>789</v>
       </c>
-      <c r="D186" t="s">
-        <v>790</v>
-      </c>
       <c r="E186" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F186" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G186" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H186" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" s="1" t="s">
         <v>178</v>
       </c>
       <c r="B187" t="s">
+        <v>790</v>
+      </c>
+      <c r="C187" t="s">
         <v>791</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>792</v>
       </c>
-      <c r="D187" t="s">
-        <v>793</v>
-      </c>
       <c r="E187" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F187" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G187" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H187" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" s="1" t="s">
         <v>177</v>
       </c>
       <c r="B188" t="s">
+        <v>794</v>
+      </c>
+      <c r="C188" t="s">
+        <v>793</v>
+      </c>
+      <c r="D188" t="s">
         <v>795</v>
       </c>
-      <c r="C188" t="s">
-        <v>794</v>
-      </c>
-      <c r="D188" t="s">
-        <v>796</v>
-      </c>
       <c r="E188" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F188" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G188" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H188" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" s="1" t="s">
         <v>176</v>
       </c>
       <c r="B189" t="s">
+        <v>796</v>
+      </c>
+      <c r="C189" t="s">
         <v>797</v>
       </c>
-      <c r="C189" t="s">
+      <c r="D189" t="s">
         <v>798</v>
       </c>
-      <c r="D189" t="s">
-        <v>799</v>
-      </c>
       <c r="E189" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F189" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G189" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H189" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>175</v>
       </c>
       <c r="B190" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C190" t="s">
+        <v>799</v>
+      </c>
+      <c r="D190" t="s">
         <v>800</v>
       </c>
-      <c r="D190" t="s">
-        <v>801</v>
-      </c>
       <c r="E190" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F190" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G190" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H190" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>174</v>
       </c>
       <c r="B191" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C191" t="s">
+        <v>801</v>
+      </c>
+      <c r="D191" t="s">
         <v>802</v>
       </c>
-      <c r="D191" t="s">
-        <v>803</v>
-      </c>
       <c r="E191" t="s">
-        <v>1073</v>
-      </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F191" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G191" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H191" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>173</v>
       </c>
       <c r="B192" t="s">
+        <v>803</v>
+      </c>
+      <c r="C192" t="s">
         <v>804</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>805</v>
       </c>
-      <c r="D192" t="s">
-        <v>806</v>
-      </c>
       <c r="E192" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F192" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G192" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H192" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>172</v>
       </c>
       <c r="B193" t="s">
+        <v>806</v>
+      </c>
+      <c r="C193" t="s">
+        <v>808</v>
+      </c>
+      <c r="D193" t="s">
         <v>807</v>
       </c>
-      <c r="C193" t="s">
-        <v>809</v>
-      </c>
-      <c r="D193" t="s">
-        <v>808</v>
-      </c>
       <c r="E193" t="s">
-        <v>1074</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F193" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G193" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H193" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" s="1" t="s">
         <v>171</v>
       </c>
       <c r="B194" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C194" t="s">
+        <v>817</v>
+      </c>
+      <c r="D194" t="s">
         <v>818</v>
       </c>
-      <c r="D194" t="s">
-        <v>819</v>
-      </c>
       <c r="E194" t="s">
-        <v>1075</v>
-      </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F194" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G194" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H194" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" s="1" t="s">
         <v>170</v>
       </c>
       <c r="B195" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C195" t="s">
+        <v>819</v>
+      </c>
+      <c r="D195" t="s">
         <v>820</v>
       </c>
-      <c r="D195" t="s">
-        <v>821</v>
-      </c>
       <c r="E195" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F195" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G195" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H195" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" s="1" t="s">
         <v>169</v>
       </c>
       <c r="B196" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C196" t="s">
+        <v>821</v>
+      </c>
+      <c r="D196" t="s">
         <v>822</v>
       </c>
-      <c r="D196" t="s">
-        <v>823</v>
-      </c>
       <c r="E196" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F196" t="s">
+        <v>1114</v>
+      </c>
+      <c r="G196" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H196" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" s="1" t="s">
         <v>168</v>
       </c>
       <c r="B197" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C197" t="s">
+        <v>823</v>
+      </c>
+      <c r="D197" t="s">
         <v>824</v>
       </c>
-      <c r="D197" t="s">
-        <v>825</v>
-      </c>
       <c r="E197" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F197" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G197" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H197" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" s="8" t="s">
         <v>167</v>
       </c>
       <c r="B198" s="9" t="s">
+        <v>825</v>
+      </c>
+      <c r="C198" s="9" t="s">
         <v>826</v>
       </c>
-      <c r="C198" s="9" t="s">
+      <c r="D198" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="D198" s="9" t="s">
-        <v>828</v>
-      </c>
       <c r="E198" t="s">
-        <v>1076</v>
-      </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F198" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G198" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H198" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A199" s="1" t="s">
         <v>166</v>
       </c>
       <c r="B199" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C199" t="s">
+        <v>828</v>
+      </c>
+      <c r="D199" t="s">
         <v>829</v>
       </c>
-      <c r="D199" t="s">
-        <v>830</v>
-      </c>
       <c r="E199" t="s">
-        <v>1077</v>
-      </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F199" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G199" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H199" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A200" s="1" t="s">
         <v>165</v>
       </c>
       <c r="B200" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C200" t="s">
+        <v>830</v>
+      </c>
+      <c r="D200" t="s">
         <v>831</v>
       </c>
-      <c r="D200" t="s">
-        <v>832</v>
-      </c>
       <c r="E200" t="s">
-        <v>1078</v>
-      </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F200" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G200" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H200" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A201" s="1" t="s">
         <v>164</v>
       </c>
       <c r="B201" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C201" t="s">
+        <v>832</v>
+      </c>
+      <c r="D201" t="s">
         <v>833</v>
       </c>
-      <c r="D201" t="s">
-        <v>834</v>
-      </c>
       <c r="E201" t="s">
-        <v>1079</v>
-      </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F201" t="s">
+        <v>1077</v>
+      </c>
+      <c r="G201" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H201" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A202" s="1" t="s">
         <v>163</v>
       </c>
       <c r="B202" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C202" t="s">
+        <v>834</v>
+      </c>
+      <c r="D202" t="s">
         <v>835</v>
       </c>
-      <c r="D202" t="s">
-        <v>836</v>
-      </c>
       <c r="E202" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F202" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G202" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H202" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A203" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B203" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C203" t="s">
+        <v>836</v>
+      </c>
+      <c r="D203" t="s">
         <v>837</v>
       </c>
-      <c r="D203" t="s">
-        <v>838</v>
-      </c>
       <c r="E203" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F203" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G203" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H203" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A204" s="1" t="s">
         <v>161</v>
       </c>
       <c r="B204" t="s">
+        <v>839</v>
+      </c>
+      <c r="C204" t="s">
+        <v>838</v>
+      </c>
+      <c r="D204" t="s">
         <v>840</v>
       </c>
-      <c r="C204" t="s">
-        <v>839</v>
-      </c>
-      <c r="D204" t="s">
-        <v>841</v>
-      </c>
       <c r="E204" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F204" t="s">
+        <v>1118</v>
+      </c>
+      <c r="G204" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H204" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A205" s="1" t="s">
         <v>160</v>
       </c>
       <c r="B205" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C205" t="s">
+        <v>841</v>
+      </c>
+      <c r="D205" t="s">
         <v>842</v>
       </c>
-      <c r="D205" t="s">
-        <v>843</v>
-      </c>
       <c r="E205" t="s">
-        <v>1080</v>
-      </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F205" t="s">
+        <v>1078</v>
+      </c>
+      <c r="G205" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H205" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A206" s="1" t="s">
         <v>159</v>
       </c>
       <c r="B206" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C206" t="s">
+        <v>843</v>
+      </c>
+      <c r="D206" t="s">
         <v>844</v>
       </c>
-      <c r="D206" t="s">
-        <v>845</v>
-      </c>
       <c r="E206" t="s">
-        <v>1081</v>
-      </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F206" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G206" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H206" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>158</v>
       </c>
       <c r="B207" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C207" t="s">
+        <v>845</v>
+      </c>
+      <c r="D207" t="s">
         <v>846</v>
       </c>
-      <c r="D207" t="s">
-        <v>847</v>
-      </c>
       <c r="E207" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F207" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G207" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H207" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>157</v>
       </c>
       <c r="B208" t="s">
+        <v>848</v>
+      </c>
+      <c r="C208" t="s">
+        <v>847</v>
+      </c>
+      <c r="D208" t="s">
         <v>849</v>
       </c>
-      <c r="C208" t="s">
-        <v>848</v>
-      </c>
-      <c r="D208" t="s">
-        <v>850</v>
-      </c>
       <c r="E208" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F208" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G208" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H208" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209" s="1" t="s">
         <v>156</v>
       </c>
       <c r="B209" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C209" t="s">
+        <v>850</v>
+      </c>
+      <c r="D209" t="s">
         <v>851</v>
       </c>
-      <c r="D209" t="s">
-        <v>852</v>
-      </c>
       <c r="E209" t="s">
-        <v>1083</v>
-      </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F209" t="s">
+        <v>1081</v>
+      </c>
+      <c r="G209" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H209" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210" s="1" t="s">
         <v>155</v>
       </c>
       <c r="B210" t="s">
+        <v>852</v>
+      </c>
+      <c r="C210" t="s">
+        <v>854</v>
+      </c>
+      <c r="D210" t="s">
         <v>853</v>
       </c>
-      <c r="C210" t="s">
-        <v>855</v>
-      </c>
-      <c r="D210" t="s">
-        <v>854</v>
-      </c>
       <c r="E210" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F210" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G210" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H210" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211" s="1" t="s">
         <v>154</v>
       </c>
       <c r="B211" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C211" t="s">
+        <v>855</v>
+      </c>
+      <c r="D211" t="s">
         <v>856</v>
       </c>
-      <c r="D211" t="s">
-        <v>857</v>
-      </c>
       <c r="E211" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F211" t="s">
+        <v>1121</v>
+      </c>
+      <c r="G211" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H211" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212" s="1" t="s">
         <v>153</v>
       </c>
       <c r="B212" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C212" t="s">
+        <v>857</v>
+      </c>
+      <c r="D212" t="s">
         <v>858</v>
       </c>
-      <c r="D212" t="s">
-        <v>859</v>
-      </c>
       <c r="E212" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F212" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G212" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H212" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B213" t="s">
+        <v>859</v>
+      </c>
+      <c r="C213" t="s">
         <v>860</v>
       </c>
-      <c r="C213" t="s">
+      <c r="D213" t="s">
         <v>861</v>
       </c>
-      <c r="D213" t="s">
-        <v>862</v>
-      </c>
       <c r="E213" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F213" t="s">
+        <v>1122</v>
+      </c>
+      <c r="G213" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H213" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214" s="1" t="s">
         <v>151</v>
       </c>
       <c r="B214" t="s">
+        <v>862</v>
+      </c>
+      <c r="C214" t="s">
         <v>863</v>
       </c>
-      <c r="C214" t="s">
+      <c r="D214" t="s">
         <v>864</v>
       </c>
-      <c r="D214" t="s">
-        <v>865</v>
-      </c>
       <c r="E214" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F214" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G214" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H214" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B215" t="s">
+        <v>865</v>
+      </c>
+      <c r="C215" t="s">
         <v>866</v>
       </c>
-      <c r="C215" t="s">
+      <c r="D215" t="s">
         <v>867</v>
       </c>
-      <c r="D215" t="s">
-        <v>868</v>
-      </c>
       <c r="E215" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F215" t="s">
+        <v>1124</v>
+      </c>
+      <c r="G215" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H215" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216" s="1" t="s">
         <v>149</v>
       </c>
       <c r="B216" t="s">
+        <v>868</v>
+      </c>
+      <c r="C216" t="s">
         <v>869</v>
       </c>
-      <c r="C216" t="s">
+      <c r="D216" t="s">
         <v>870</v>
       </c>
-      <c r="D216" t="s">
-        <v>871</v>
-      </c>
       <c r="E216" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F216" t="s">
+        <v>1125</v>
+      </c>
+      <c r="G216" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H216" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217" s="1" t="s">
         <v>148</v>
       </c>
       <c r="B217" t="s">
+        <v>871</v>
+      </c>
+      <c r="C217" t="s">
         <v>872</v>
       </c>
-      <c r="C217" t="s">
+      <c r="D217" t="s">
         <v>873</v>
       </c>
-      <c r="D217" t="s">
-        <v>874</v>
-      </c>
       <c r="E217" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F217" t="s">
+        <v>1126</v>
+      </c>
+      <c r="G217" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H217" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218" s="1" t="s">
         <v>147</v>
       </c>
       <c r="B218" t="s">
+        <v>874</v>
+      </c>
+      <c r="C218" t="s">
         <v>875</v>
       </c>
-      <c r="C218" t="s">
+      <c r="D218" t="s">
         <v>876</v>
       </c>
-      <c r="D218" t="s">
-        <v>877</v>
-      </c>
       <c r="E218" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F218" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G218" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H218" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219" s="1" t="s">
         <v>145</v>
       </c>
       <c r="B219" t="s">
+        <v>877</v>
+      </c>
+      <c r="C219" t="s">
         <v>878</v>
       </c>
-      <c r="C219" t="s">
+      <c r="D219" t="s">
         <v>879</v>
       </c>
-      <c r="D219" t="s">
-        <v>880</v>
-      </c>
       <c r="E219" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F219" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G219" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H219" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220" s="1" t="s">
         <v>144</v>
       </c>
       <c r="B220" t="s">
+        <v>880</v>
+      </c>
+      <c r="C220" t="s">
         <v>881</v>
       </c>
-      <c r="C220" t="s">
+      <c r="D220" t="s">
         <v>882</v>
       </c>
-      <c r="D220" t="s">
-        <v>883</v>
-      </c>
       <c r="E220" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F220" t="s">
+        <v>1129</v>
+      </c>
+      <c r="G220" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H220" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B221" t="s">
+        <v>883</v>
+      </c>
+      <c r="C221" t="s">
         <v>884</v>
       </c>
-      <c r="C221" t="s">
+      <c r="D221" t="s">
         <v>885</v>
       </c>
-      <c r="D221" t="s">
-        <v>886</v>
-      </c>
       <c r="E221" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F221" t="s">
+        <v>1130</v>
+      </c>
+      <c r="G221" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H221" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
         <v>143</v>
       </c>
       <c r="B222" t="s">
+        <v>909</v>
+      </c>
+      <c r="C222" t="s">
+        <v>908</v>
+      </c>
+      <c r="D222" t="s">
         <v>910</v>
       </c>
-      <c r="C222" t="s">
-        <v>909</v>
-      </c>
-      <c r="D222" t="s">
-        <v>911</v>
-      </c>
       <c r="E222" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F222" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G222" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H222" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223" s="1" t="s">
         <v>142</v>
       </c>
       <c r="B223" t="s">
+        <v>886</v>
+      </c>
+      <c r="C223" t="s">
         <v>887</v>
       </c>
-      <c r="C223" t="s">
+      <c r="D223" t="s">
         <v>888</v>
       </c>
-      <c r="D223" t="s">
-        <v>889</v>
-      </c>
       <c r="E223" t="s">
-        <v>1085</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F223" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G223" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H223" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224" s="1" t="s">
         <v>141</v>
       </c>
       <c r="B224" t="s">
+        <v>889</v>
+      </c>
+      <c r="C224" t="s">
         <v>890</v>
       </c>
-      <c r="C224" t="s">
+      <c r="D224" t="s">
         <v>891</v>
       </c>
-      <c r="D224" t="s">
-        <v>892</v>
-      </c>
       <c r="E224" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F224" t="s">
+        <v>1132</v>
+      </c>
+      <c r="G224" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H224" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B225" t="s">
+        <v>892</v>
+      </c>
+      <c r="C225" t="s">
         <v>893</v>
       </c>
-      <c r="C225" t="s">
+      <c r="D225" t="s">
         <v>894</v>
       </c>
-      <c r="D225" t="s">
-        <v>895</v>
-      </c>
       <c r="E225" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F225" t="s">
+        <v>1133</v>
+      </c>
+      <c r="G225" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H225" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="3" t="s">
         <v>139</v>
       </c>
       <c r="B226" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C226" t="s">
+        <v>895</v>
+      </c>
+      <c r="D226" t="s">
         <v>896</v>
       </c>
-      <c r="D226" t="s">
-        <v>897</v>
-      </c>
       <c r="E226" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F226" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G226" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H226" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="4" t="s">
         <v>138</v>
       </c>
       <c r="B227" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C227" t="s">
+        <v>897</v>
+      </c>
+      <c r="D227" t="s">
         <v>898</v>
       </c>
-      <c r="D227" t="s">
-        <v>899</v>
-      </c>
       <c r="E227" t="s">
-        <v>969</v>
-      </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.3">
+        <v>1141</v>
+      </c>
+      <c r="F227" t="s">
+        <v>1135</v>
+      </c>
+      <c r="G227" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H227" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="1" t="s">
         <v>137</v>
       </c>
       <c r="B228" t="s">
+        <v>900</v>
+      </c>
+      <c r="C228" t="s">
+        <v>899</v>
+      </c>
+      <c r="D228" t="s">
         <v>901</v>
       </c>
-      <c r="C228" t="s">
-        <v>900</v>
-      </c>
-      <c r="D228" t="s">
-        <v>902</v>
-      </c>
       <c r="E228" t="s">
-        <v>1086</v>
+        <v>1141</v>
+      </c>
+      <c r="F228" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G228" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H228" t="s">
+        <v>1141</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7692,6 +9910,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x010100770B682267EEE7409A79CAAE2413724D" ma:contentTypeVersion="6" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="3248bfbfc7de6860f2100beb7e66afd7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="3fd15ed2-de46-4c74-a77d-6f0fcf711329" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3c75997ccf27b049451e309ced9b123a" ns3:_="">
     <xsd:import namespace="3fd15ed2-de46-4c74-a77d-6f0fcf711329"/>
@@ -7847,15 +10074,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FFB85C29-725F-4CF4-A6B1-C91E05A7A1BA}">
   <ds:schemaRefs>
@@ -7873,6 +10091,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CB0C79E-188C-4D70-B493-65CE763A02BA}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2BA906F6-7C01-4527-9EC9-DF7A5620D975}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7888,12 +10114,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CB0C79E-188C-4D70-B493-65CE763A02BA}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>